--- a/phaseIIProposal/commercialization/ProFormaLicensing.xlsx
+++ b/phaseIIProposal/commercialization/ProFormaLicensing.xlsx
@@ -1,17 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\shared\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9AA3C9-83D8-451F-910A-5DFA14A79668}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28740" yWindow="1080" windowWidth="24720" windowHeight="17400"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProForma income" sheetId="1" r:id="rId1"/>
     <sheet name="Assumptions" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'ProForma income'!$B$2:$G$41</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -20,13 +35,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Mohammad Rashti</author>
     <author>Jenny Servo</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -41,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="1">
+    <comment ref="B22" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="1">
+    <comment ref="B33" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="1">
+    <comment ref="B34" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <r>
       <t>How are your consulting services estimated?  Are there any assumptions about the terms of your planned licensing arrangement that you need to state to justify the revenues or fees in this section?  Will you be applying for Phase IIb?</t>
@@ -129,85 +144,49 @@
   </si>
   <si>
     <t>Rate Market growth (average)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Floating Node Price</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nodes Per User</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Revenue per User</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Num Users</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Expenses</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Licensing &amp; Royalties </t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CAE and Simulation Market Size </t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales (Revenue)   </t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>How did you calculate the market size for the initial year of the projection period? How is the growth rate calculated? Is it applied over the projection period? How did you calculate/estimate the sales of the potential licensee (license revenue base)? Does the growth rate apply to this or did you estimate each year independently? How did you estimate the royalty rate (a good way to do this is to look at comparables for similar goods/services or call a licensing expert in your technology area)?</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Income Before Tax</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Income</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Net Income</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Revenue</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expenses</t>
   </si>
   <si>
     <t>Revenue</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Expenses</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Phase II (2018)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Licensing &amp; Royalties </t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Max users</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Phase II (2017)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>For years 2017 to 2021</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CAE and Simulation Market Size </t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Sales (Revenue)   </t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>How did you calculate the market size for the initial year of the projection period? How is the growth rate calculated? Is it applied over the projection period? How did you calculate/estimate the sales of the potential licensee (license revenue base)? Does the growth rate apply to this or did you estimate each year independently? How did you estimate the royalty rate (a good way to do this is to look at comparables for similar goods/services or call a licensing expert in your technology area)?</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Income Before Tax</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Income</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Net Income</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Revenue</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expenses</t>
-  </si>
-  <si>
-    <t>Revenue</t>
   </si>
   <si>
     <t xml:space="preserve"> Revenues </t>
@@ -255,93 +234,78 @@
     <t>Operating Margin %</t>
   </si>
   <si>
-    <t>&lt;= this is also EBITDA</t>
-  </si>
-  <si>
     <t>Sales &amp; Marketing</t>
   </si>
   <si>
     <t>RNET Technologies, Inc.</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>G&amp;A</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>OH</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Back calculated revnue and CAGR</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Salary</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Loaded Rate</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>25% of loaded rate</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>50%of loaded Rate</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 2 and then 3 full time support staff/FAE</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25, 0.5, 1.5, and then 2 salesmen</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Cost of services (technical support)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>% market share</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pro Forma Income Statement (CloudBench)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Administrative (G&amp;A) - 7%</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Software Licenses Sold</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average License Price</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Consulting or aftersale services</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Software Sales</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phase II (2019)</t>
+  </si>
+  <si>
+    <t>Phase II (2020)</t>
+  </si>
+  <si>
+    <t>Supports Contracts @$5000 each</t>
+  </si>
+  <si>
+    <t>Commercial Licences ($20,000 each)</t>
+  </si>
+  <si>
+    <t>R&amp;D Contracts ($100,000 each)</t>
+  </si>
+  <si>
+    <t>Integration Contracts ($100,000 each)</t>
+  </si>
+  <si>
+    <t>Pro Forma Income Statement (VnV Toolkit)</t>
+  </si>
+  <si>
+    <t>For years 2019 to 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
-    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
@@ -350,7 +314,7 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="47">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -381,12 +345,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="9"/>
       <name val="Verdana"/>
     </font>
     <font>
@@ -597,6 +555,38 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -1364,61 +1354,61 @@
   </borders>
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1429,9 +1419,9 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="9" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1446,19 +1436,19 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1469,8 +1459,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1481,26 +1471,14 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="44" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="45" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1509,12 +1487,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="47" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1525,22 +1497,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1549,7 +1512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1565,13 +1528,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1581,19 +1538,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="51" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1602,22 +1550,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1645,7 +1590,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1688,55 +1633,122 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="42" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="42" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="42" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="47" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="47">
-    <cellStyle name="20% - Accent1" xfId="1"/>
-    <cellStyle name="20% - Accent2" xfId="2"/>
-    <cellStyle name="20% - Accent3" xfId="3"/>
-    <cellStyle name="20% - Accent4" xfId="4"/>
-    <cellStyle name="20% - Accent5" xfId="5"/>
-    <cellStyle name="20% - Accent6" xfId="6"/>
-    <cellStyle name="40% - Accent1" xfId="7"/>
-    <cellStyle name="40% - Accent2" xfId="8"/>
-    <cellStyle name="40% - Accent3" xfId="9"/>
-    <cellStyle name="40% - Accent4" xfId="10"/>
-    <cellStyle name="40% - Accent5" xfId="11"/>
-    <cellStyle name="40% - Accent6" xfId="12"/>
-    <cellStyle name="60% - Accent1" xfId="13"/>
-    <cellStyle name="60% - Accent2" xfId="14"/>
-    <cellStyle name="60% - Accent3" xfId="15"/>
-    <cellStyle name="60% - Accent4" xfId="16"/>
-    <cellStyle name="60% - Accent5" xfId="17"/>
-    <cellStyle name="60% - Accent6" xfId="18"/>
-    <cellStyle name="Accent1" xfId="19"/>
-    <cellStyle name="Accent2" xfId="20"/>
-    <cellStyle name="Accent3" xfId="21"/>
-    <cellStyle name="Accent4" xfId="22"/>
-    <cellStyle name="Accent5" xfId="23"/>
-    <cellStyle name="Accent6" xfId="24"/>
-    <cellStyle name="Bad" xfId="25"/>
-    <cellStyle name="Calculation" xfId="26"/>
-    <cellStyle name="Check Cell" xfId="27"/>
+    <cellStyle name="20% - Accent1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Calculation" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Check Cell" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="Comma" xfId="28" builtinId="3"/>
     <cellStyle name="Currency" xfId="46" builtinId="4"/>
-    <cellStyle name="Explanatory Text" xfId="29"/>
+    <cellStyle name="Explanatory Text" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Good" xfId="30"/>
-    <cellStyle name="Heading 1" xfId="31"/>
-    <cellStyle name="Heading 2" xfId="32"/>
-    <cellStyle name="Heading 3" xfId="33"/>
-    <cellStyle name="Heading 4" xfId="34"/>
+    <cellStyle name="Good" xfId="30" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Heading 1" xfId="31" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Heading 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Heading 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Heading 4" xfId="34" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Input" xfId="35"/>
-    <cellStyle name="Linked Cell" xfId="36"/>
-    <cellStyle name="Neutral" xfId="37"/>
+    <cellStyle name="Input" xfId="35" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Linked Cell" xfId="36" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Neutral" xfId="37" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="38"/>
-    <cellStyle name="Output" xfId="39"/>
+    <cellStyle name="Note" xfId="38" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Output" xfId="39" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="Percent" xfId="40" builtinId="5"/>
-    <cellStyle name="Title" xfId="41"/>
-    <cellStyle name="Total" xfId="42"/>
-    <cellStyle name="Warning Text" xfId="43"/>
+    <cellStyle name="Title" xfId="41" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Total" xfId="42" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Warning Text" xfId="43" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -1812,6 +1824,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1833,7 +1848,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1083" name="Text Box 12"/>
+        <xdr:cNvPr id="1083" name="Text Box 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1879,12 +1900,18 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>686421</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>44451</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>115888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2253,103 +2280,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G41"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20" style="54" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="32.875" style="45" customWidth="1"/>
+    <col min="3" max="7" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="23">
-      <c r="B2" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80"/>
-    </row>
-    <row r="4" spans="1:9" ht="16">
-      <c r="B4" s="55"/>
-      <c r="C4" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-    </row>
-    <row r="5" spans="1:9" ht="16">
-      <c r="C5" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-    </row>
-    <row r="6" spans="1:9" ht="14" thickBot="1"/>
+    <row r="2" spans="1:9" ht="22.5">
+      <c r="B2" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
+    </row>
+    <row r="4" spans="1:9" ht="15">
+      <c r="B4" s="46"/>
+      <c r="C4" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+    </row>
+    <row r="5" spans="1:9" ht="15">
+      <c r="C5" s="119" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+    </row>
+    <row r="6" spans="1:9" ht="13.5" thickBot="1"/>
     <row r="7" spans="1:9" ht="18">
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="32">
-        <v>2019</v>
-      </c>
-      <c r="F7" s="32">
-        <v>2020</v>
-      </c>
-      <c r="G7" s="33">
+      <c r="B7" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="31">
         <v>2021</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="26">
+      <c r="F7" s="31">
+        <v>2022</v>
+      </c>
+      <c r="G7" s="32">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="25.5">
       <c r="B8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="39">
+        <v>4</v>
+      </c>
+      <c r="C8" s="35">
         <v>7000000000</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="35">
         <f>C8*(1+C9)</f>
         <v>7770000000.000001</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="35">
         <f>D8*(1+D9)</f>
         <v>8624700000.0000019</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="35">
         <f>E8*(1+E9)</f>
         <v>9573417000.0000038</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="36">
         <f>F8*(1+F9)</f>
         <v>10626492870.000006</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="26">
+    <row r="9" spans="1:9" ht="25.5">
       <c r="A9" s="1"/>
       <c r="B9" s="21" t="s">
         <v>1</v>
@@ -2372,71 +2396,62 @@
     </row>
     <row r="10" spans="1:9" ht="18">
       <c r="A10" s="2"/>
-      <c r="B10" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="39">
+      <c r="B10" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="35">
         <f>C16+C17</f>
         <v>0</v>
       </c>
-      <c r="D10" s="39">
-        <f t="shared" ref="D10:G10" si="0">D16+D17</f>
-        <v>200000</v>
-      </c>
-      <c r="E10" s="39">
+      <c r="D10" s="35">
+        <v>100000</v>
+      </c>
+      <c r="E10" s="35">
+        <f>SUM(E14:E18)</f>
+        <v>570000</v>
+      </c>
+      <c r="F10" s="35">
+        <f t="shared" ref="F10:G10" si="0">SUM(F14:F18)</f>
+        <v>1460000</v>
+      </c>
+      <c r="G10" s="35">
         <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="F10" s="39">
-        <f t="shared" si="0"/>
-        <v>1900000</v>
-      </c>
-      <c r="G10" s="40">
-        <f t="shared" si="0"/>
-        <v>3500000</v>
-      </c>
-      <c r="H10">
-        <f>E10/E8</f>
-        <v>1.1594606189200781E-4</v>
-      </c>
-      <c r="I10">
-        <f>F10/F8</f>
-        <v>1.9846623206740073E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="19" thickBot="1">
+        <v>3180000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" thickBot="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="69">
+      <c r="B11" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="58">
         <f t="shared" ref="C11:D11" si="1">C10/C8</f>
         <v>0</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="58">
         <f t="shared" si="1"/>
-        <v>2.5740025740025736E-5</v>
-      </c>
-      <c r="E11" s="69">
+        <v>1.2870012870012868E-5</v>
+      </c>
+      <c r="E11" s="58">
         <f>E10/E8</f>
-        <v>1.1594606189200781E-4</v>
-      </c>
-      <c r="F11" s="69">
+        <v>6.6089255278444458E-5</v>
+      </c>
+      <c r="F11" s="58">
         <f>F10/F8</f>
-        <v>1.9846623206740073E-4</v>
-      </c>
-      <c r="G11" s="70">
+        <v>1.5250563095705528E-4</v>
+      </c>
+      <c r="G11" s="59">
         <f>G10/G8</f>
-        <v>3.2936548707249998E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14" thickBot="1"/>
+        <v>2.9925207111158571E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="13.5" thickBot="1"/>
     <row r="13" spans="1:9" ht="18">
       <c r="A13" s="2">
         <v>2</v>
       </c>
-      <c r="B13" s="56" t="s">
-        <v>22</v>
+      <c r="B13" s="47" t="s">
+        <v>13</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2446,148 +2461,145 @@
     </row>
     <row r="14" spans="1:9" ht="18">
       <c r="A14" s="2"/>
-      <c r="B14" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="66">
+      <c r="B14" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="101">
         <v>0</v>
       </c>
-      <c r="D14" s="66">
-        <v>100</v>
-      </c>
-      <c r="E14" s="66">
-        <v>700</v>
-      </c>
-      <c r="F14" s="66">
-        <v>1400</v>
-      </c>
-      <c r="G14" s="71">
-        <v>2800</v>
-      </c>
-      <c r="I14" s="50" t="e">
-        <f>#REF!/(G14+#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D14" s="101">
+        <v>100000</v>
+      </c>
+      <c r="E14" s="101">
+        <v>300000</v>
+      </c>
+      <c r="F14" s="101">
+        <v>300000</v>
+      </c>
+      <c r="G14" s="102">
+        <v>300000</v>
+      </c>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" spans="1:9" ht="18">
       <c r="A15" s="2"/>
-      <c r="B15" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="36">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="36">
-        <v>1000</v>
-      </c>
-      <c r="E15" s="36">
-        <v>1000</v>
-      </c>
-      <c r="F15" s="36">
-        <v>1000</v>
-      </c>
-      <c r="G15" s="72">
-        <v>1000</v>
-      </c>
-      <c r="I15" s="50"/>
+      <c r="B15" s="116" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="101">
+        <v>0</v>
+      </c>
+      <c r="D15" s="101">
+        <v>0</v>
+      </c>
+      <c r="E15" s="101">
+        <v>150000</v>
+      </c>
+      <c r="F15" s="101">
+        <v>1000000</v>
+      </c>
+      <c r="G15" s="102">
+        <v>2500000</v>
+      </c>
+      <c r="H15" s="99"/>
+      <c r="I15" s="44"/>
     </row>
     <row r="16" spans="1:9" s="25" customFormat="1" ht="18">
       <c r="A16" s="2"/>
-      <c r="B16" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="65">
-        <f>C14*C15</f>
+      <c r="B16" s="116" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="103">
         <v>0</v>
       </c>
-      <c r="D16" s="65">
-        <f>D14*D15</f>
+      <c r="D16" s="103">
+        <v>0</v>
+      </c>
+      <c r="E16" s="103">
+        <v>20000</v>
+      </c>
+      <c r="F16" s="103">
+        <v>60000</v>
+      </c>
+      <c r="G16" s="104">
+        <v>180000</v>
+      </c>
+      <c r="I16" s="56"/>
+    </row>
+    <row r="17" spans="1:9" ht="18">
+      <c r="A17" s="2"/>
+      <c r="B17" s="116" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="101">
+        <v>0</v>
+      </c>
+      <c r="D17" s="101">
+        <v>0</v>
+      </c>
+      <c r="E17" s="101">
         <v>100000</v>
       </c>
-      <c r="E16" s="65">
-        <f t="shared" ref="E16:G16" si="2">E14*E15</f>
-        <v>700000</v>
-      </c>
-      <c r="F16" s="65">
-        <f t="shared" si="2"/>
-        <v>1400000</v>
-      </c>
-      <c r="G16" s="73">
-        <f t="shared" si="2"/>
-        <v>2800000</v>
-      </c>
-      <c r="I16" s="67"/>
-    </row>
-    <row r="17" spans="1:9" ht="27">
-      <c r="A17" s="2"/>
-      <c r="B17" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36">
+      <c r="F17" s="101">
         <v>100000</v>
       </c>
-      <c r="E17" s="36">
-        <v>300000</v>
-      </c>
-      <c r="F17" s="36">
+      <c r="G17" s="102">
+        <v>200000</v>
+      </c>
+      <c r="H17" s="97"/>
+      <c r="I17" s="44"/>
+    </row>
+    <row r="18" spans="1:9" ht="30.95" customHeight="1" thickBot="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="105">
         <v>500000</v>
       </c>
-      <c r="G17" s="72">
-        <v>700000</v>
-      </c>
-      <c r="I17" s="50"/>
-    </row>
-    <row r="18" spans="1:9" ht="31" customHeight="1" thickBot="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="37">
+      <c r="D18" s="105">
         <v>500000</v>
       </c>
-      <c r="D18" s="37">
-        <v>500000</v>
-      </c>
-      <c r="E18" s="37">
+      <c r="E18" s="105">
         <v>0</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="105">
         <v>0</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="106">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="19" thickBot="1">
+    <row r="19" spans="1:9" ht="19.5" thickTop="1" thickBot="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="11" t="s">
-        <v>19</v>
+      <c r="B19" s="100" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="15">
         <f>SUM(C16:C18)</f>
         <v>500000</v>
       </c>
       <c r="D19" s="15">
-        <f t="shared" ref="D19:G19" si="3">SUM(D16:D18)</f>
-        <v>700000</v>
+        <f>SUM(D14:D18)</f>
+        <v>600000</v>
       </c>
       <c r="E19" s="15">
-        <f t="shared" si="3"/>
-        <v>1000000</v>
+        <f>SUM(E14:E18)</f>
+        <v>570000</v>
       </c>
       <c r="F19" s="15">
-        <f t="shared" si="3"/>
-        <v>1900000</v>
-      </c>
-      <c r="G19" s="74">
-        <f t="shared" si="3"/>
-        <v>3500000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="19" thickBot="1">
+        <f>SUM(F14:F18)</f>
+        <v>1460000</v>
+      </c>
+      <c r="G19" s="60">
+        <f>SUM(G14:G18)</f>
+        <v>3180000</v>
+      </c>
+      <c r="H19" s="98"/>
+    </row>
+    <row r="20" spans="1:9" ht="18.75" thickBot="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="58"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="29"/>
@@ -2599,205 +2611,198 @@
       <c r="A21" s="2">
         <v>3</v>
       </c>
-      <c r="B21" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="77"/>
-    </row>
-    <row r="22" spans="1:9" ht="18">
+      <c r="B21" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="63"/>
+    </row>
+    <row r="22" spans="1:9" ht="25.5">
       <c r="A22" s="2"/>
       <c r="B22" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="43">
+        <v>3</v>
+      </c>
+      <c r="C22" s="107">
         <v>0</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="107">
         <v>0</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="107">
         <v>0</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F22" s="107">
         <v>0</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G22" s="107">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18">
       <c r="A23" s="2"/>
       <c r="B23" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="43">
+        <v>28</v>
+      </c>
+      <c r="C23" s="107">
         <v>0</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="108">
         <f>E84</f>
         <v>92400</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="108">
         <f>C84</f>
         <v>184800</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="108">
         <f>2*E23</f>
         <v>369600</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="109">
         <f>F23</f>
         <v>369600</v>
       </c>
-      <c r="H23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="27">
+    </row>
+    <row r="24" spans="1:9" ht="26.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="39">
+      <c r="B24" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="108">
         <v>0</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="108">
         <f>E80</f>
         <v>61600</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="108">
         <f>2*D24</f>
         <v>123200</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="108">
         <f>2*E24</f>
         <v>246400</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="109">
         <f>F24</f>
         <v>246400</v>
       </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="26">
+    </row>
+    <row r="25" spans="1:9" ht="25.5">
       <c r="A25" s="2"/>
       <c r="B25" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="43">
+        <v>38</v>
+      </c>
+      <c r="C25" s="107">
         <v>0</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="107">
         <f>(D23+D27+D28+D29)*$C$72</f>
-        <v>20636.000000000004</v>
-      </c>
-      <c r="E25" s="43">
+        <v>7168.0000000000009</v>
+      </c>
+      <c r="E25" s="107">
         <f>(E23+E27+E28+E29)*$C$72</f>
         <v>30072.000000000004</v>
       </c>
-      <c r="F25" s="43">
-        <f t="shared" ref="F25:G25" si="4">(F23+F27+F28+F29)*$C$72</f>
+      <c r="F25" s="107">
+        <f t="shared" ref="F25" si="2">(F23+F27+F28+F29)*$C$72</f>
         <v>56476.000000000007</v>
       </c>
-      <c r="G25" s="44">
+      <c r="G25" s="110">
         <f>F24*1.25</f>
         <v>308000</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="19" thickBot="1">
+    <row r="26" spans="1:9" ht="18.75" thickBot="1">
       <c r="A26" s="2"/>
       <c r="B26" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="45">
+        <v>14</v>
+      </c>
+      <c r="C26" s="111">
         <f>C18*0.93</f>
         <v>465000</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="111">
         <f>D18*0.93</f>
         <v>465000</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="112"/>
     </row>
     <row r="27" spans="1:9" ht="18">
       <c r="A27" s="2"/>
-      <c r="B27" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="39">
+      <c r="B27" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="108">
         <v>0</v>
       </c>
-      <c r="D27" s="39">
-        <f>E84</f>
-        <v>92400</v>
-      </c>
-      <c r="E27" s="39">
+      <c r="D27" s="108">
+        <v>0</v>
+      </c>
+      <c r="E27" s="108">
         <f>C84</f>
         <v>184800</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="108">
         <f>E27*1.5</f>
         <v>277200</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G27" s="109">
         <f>F27*1.25</f>
         <v>346500</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18">
       <c r="A28" s="2"/>
-      <c r="B28" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="43">
+      <c r="B28" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="107">
         <v>0</v>
       </c>
-      <c r="D28" s="43">
-        <v>100000</v>
-      </c>
-      <c r="E28" s="39">
+      <c r="D28" s="107">
+        <v>0</v>
+      </c>
+      <c r="E28" s="108">
         <v>50000</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="108">
         <v>150000</v>
       </c>
-      <c r="G28" s="40">
+      <c r="G28" s="109">
         <v>300000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="19" thickBot="1">
+    <row r="29" spans="1:9" ht="18.75" thickBot="1">
       <c r="A29" s="2"/>
       <c r="B29" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="45">
+        <v>20</v>
+      </c>
+      <c r="C29" s="111">
         <v>0</v>
       </c>
-      <c r="D29" s="46">
+      <c r="D29" s="112">
         <v>10000</v>
       </c>
-      <c r="E29" s="51">
+      <c r="E29" s="113">
         <v>10000</v>
       </c>
-      <c r="F29" s="52">
+      <c r="F29" s="114">
         <v>10000</v>
       </c>
-      <c r="G29" s="53">
+      <c r="G29" s="115">
         <v>20000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="19" thickBot="1">
+    <row r="30" spans="1:9" ht="36.75" thickBot="1">
       <c r="A30" s="2"/>
       <c r="B30" s="11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C30" s="16">
         <f>SUM(C22:C29)</f>
@@ -2805,7 +2810,7 @@
       </c>
       <c r="D30" s="16">
         <f>SUM(D22:D29)</f>
-        <v>842036</v>
+        <v>636168</v>
       </c>
       <c r="E30" s="16">
         <f>SUM(E22:E29)</f>
@@ -2820,7 +2825,7 @@
         <v>1590500</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="19" thickBot="1">
+    <row r="31" spans="1:9" ht="18.75" thickBot="1">
       <c r="A31" s="2"/>
       <c r="B31" s="20"/>
       <c r="C31" s="19"/>
@@ -2833,70 +2838,68 @@
       <c r="A32" s="2">
         <v>4</v>
       </c>
-      <c r="B32" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="27">
+      <c r="B32" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="24"/>
+    </row>
+    <row r="33" spans="1:10" ht="26.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="41">
+      <c r="B33" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="37">
         <f>C19-C30</f>
         <v>35000</v>
       </c>
-      <c r="D33" s="41">
+      <c r="D33" s="37">
         <f>D19-D30</f>
-        <v>-142036</v>
-      </c>
-      <c r="E33" s="41">
+        <v>-36168</v>
+      </c>
+      <c r="E33" s="37">
         <f>E19-E30</f>
-        <v>417128</v>
-      </c>
-      <c r="F33" s="41">
+        <v>-12872</v>
+      </c>
+      <c r="F33" s="37">
         <f>F19-F30</f>
-        <v>790324</v>
-      </c>
-      <c r="G33" s="42">
+        <v>350324</v>
+      </c>
+      <c r="G33" s="38">
         <f>G19-G30</f>
-        <v>1909500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="14" thickBot="1">
-      <c r="B34" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="34">
+        <v>1589500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="13.5" thickBot="1">
+      <c r="B34" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="33">
         <f>C33/C19</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="33">
         <f>D33/D19</f>
-        <v>-0.20290857142857144</v>
-      </c>
-      <c r="E34" s="34">
+        <v>-6.028E-2</v>
+      </c>
+      <c r="E34" s="33">
         <f>E33/E19</f>
-        <v>0.417128</v>
-      </c>
-      <c r="F34" s="34">
+        <v>-2.2582456140350878E-2</v>
+      </c>
+      <c r="F34" s="33">
         <f>F33/F19</f>
-        <v>0.41596</v>
-      </c>
-      <c r="G34" s="35">
+        <v>0.23994794520547946</v>
+      </c>
+      <c r="G34" s="34">
         <f>G33/G19</f>
-        <v>0.5455714285714286</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="19" thickBot="1">
+        <v>0.49984276729559746</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="18.75" thickBot="1">
       <c r="A35" s="2"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -2906,45 +2909,45 @@
       <c r="A36" s="2">
         <v>5</v>
       </c>
-      <c r="B36" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="77"/>
+      <c r="B36" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="63"/>
     </row>
     <row r="37" spans="1:10" ht="18">
       <c r="A37" s="2"/>
       <c r="B37" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="39">
+        <v>7</v>
+      </c>
+      <c r="C37" s="35">
         <f>C19-C30</f>
         <v>35000</v>
       </c>
-      <c r="D37" s="39">
+      <c r="D37" s="35">
         <f>D19-D30</f>
-        <v>-142036</v>
-      </c>
-      <c r="E37" s="39">
+        <v>-36168</v>
+      </c>
+      <c r="E37" s="35">
         <f>E19-E30</f>
-        <v>417128</v>
-      </c>
-      <c r="F37" s="39">
+        <v>-12872</v>
+      </c>
+      <c r="F37" s="35">
         <f>F19-F30</f>
-        <v>790324</v>
-      </c>
-      <c r="G37" s="40">
+        <v>350324</v>
+      </c>
+      <c r="G37" s="36">
         <f>G19-G30</f>
-        <v>1909500</v>
+        <v>1589500</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="18">
       <c r="A38" s="2"/>
       <c r="B38" s="21" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C38" s="7">
         <v>0.35</v>
@@ -2962,36 +2965,36 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="19" thickBot="1">
+    <row r="39" spans="1:10" ht="18.75" thickBot="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="45">
+      <c r="B39" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="39">
         <f>IF(C37&gt;0,C37*C38,0)</f>
         <v>12250</v>
       </c>
-      <c r="D39" s="45">
-        <f t="shared" ref="D39:G39" si="5">IF(D37&gt;0,D37*D38,0)</f>
+      <c r="D39" s="39">
+        <f t="shared" ref="D39:G39" si="3">IF(D37&gt;0,D37*D38,0)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="45">
-        <f t="shared" si="5"/>
-        <v>145994.79999999999</v>
-      </c>
-      <c r="F39" s="45">
-        <f t="shared" si="5"/>
-        <v>276613.39999999997</v>
-      </c>
-      <c r="G39" s="46">
-        <f t="shared" si="5"/>
-        <v>668325</v>
+      <c r="E39" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="39">
+        <f t="shared" si="3"/>
+        <v>122613.4</v>
+      </c>
+      <c r="G39" s="40">
+        <f t="shared" si="3"/>
+        <v>556325</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="18">
       <c r="A40" s="2"/>
-      <c r="B40" s="59" t="s">
-        <v>18</v>
+      <c r="B40" s="50" t="s">
+        <v>9</v>
       </c>
       <c r="C40" s="18">
         <f>IF(C37&lt;0,C37,C37*(1-C38))</f>
@@ -2999,25 +3002,25 @@
       </c>
       <c r="D40" s="18">
         <f>IF(D37&lt;0,D37,D37*(1-D38))</f>
-        <v>-142036</v>
+        <v>-36168</v>
       </c>
       <c r="E40" s="18">
         <f>IF(E37&lt;0,E37,E37*(1-E38))</f>
-        <v>271133.2</v>
+        <v>-12872</v>
       </c>
       <c r="F40" s="18">
         <f>IF(F37&lt;0,F37,F37*(1-F38))</f>
-        <v>513710.60000000003</v>
+        <v>227710.6</v>
       </c>
       <c r="G40" s="23">
         <f>IF(G37&lt;0,G37,G37*(1-G38))</f>
-        <v>1241175</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="19" thickBot="1">
+        <v>1033175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="26.25" thickBot="1">
       <c r="A41" s="2"/>
       <c r="B41" s="12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C41" s="13">
         <f>C40/C19</f>
@@ -3025,19 +3028,19 @@
       </c>
       <c r="D41" s="13">
         <f>D40/D19</f>
-        <v>-0.20290857142857144</v>
+        <v>-6.028E-2</v>
       </c>
       <c r="E41" s="13">
         <f>E40/E19</f>
-        <v>0.27113320000000002</v>
+        <v>-2.2582456140350878E-2</v>
       </c>
       <c r="F41" s="13">
         <f>F40/F19</f>
-        <v>0.270374</v>
+        <v>0.15596616438356165</v>
       </c>
       <c r="G41" s="14">
         <f>G40/G19</f>
-        <v>0.35462142857142859</v>
+        <v>0.32489779874213837</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3046,268 +3049,87 @@
     <row r="44" spans="1:10">
       <c r="C44" s="22"/>
     </row>
-    <row r="45" spans="1:10" ht="15">
+    <row r="45" spans="1:10" ht="15.75">
       <c r="F45" s="4"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="49" spans="2:8" ht="26">
-      <c r="B49" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="47">
-        <f t="shared" ref="C49:E51" si="6">ROUND(D49/(1+$G52),0)</f>
-        <v>1200927169</v>
-      </c>
-      <c r="D49" s="47">
-        <f t="shared" si="6"/>
-        <v>1364253264</v>
-      </c>
-      <c r="E49" s="47">
-        <f t="shared" si="6"/>
-        <v>1549791708</v>
-      </c>
-      <c r="F49" s="47">
-        <f>ROUND(G49/(1+$G52),0)</f>
-        <v>1760563380</v>
-      </c>
-      <c r="G49" s="47">
-        <v>2000000000</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="C50" s="47">
-        <f t="shared" si="6"/>
-        <v>1992389543</v>
-      </c>
-      <c r="D50" s="47">
-        <f t="shared" si="6"/>
-        <v>2412783737</v>
-      </c>
-      <c r="E50" s="47">
-        <f t="shared" si="6"/>
-        <v>2921881105</v>
-      </c>
-      <c r="F50" s="47">
-        <f t="shared" ref="F50:F51" si="7">ROUND(G50/(1+$G53),0)</f>
-        <v>3538398018</v>
-      </c>
-      <c r="G50" s="47">
-        <v>4285000000</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="C51" s="47">
-        <f t="shared" si="6"/>
-        <v>3074849439</v>
-      </c>
-      <c r="D51" s="47">
-        <f t="shared" si="6"/>
-        <v>3254728131</v>
-      </c>
-      <c r="E51" s="47">
-        <f t="shared" si="6"/>
-        <v>3445129727</v>
-      </c>
-      <c r="F51" s="47">
-        <f t="shared" si="7"/>
-        <v>3646669816</v>
-      </c>
-      <c r="G51" s="47">
-        <v>3860000000</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="G52" s="48">
-        <v>0.13600000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="G53" s="48">
-        <v>0.21099999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="G54" s="48">
-        <v>5.8500000000000003E-2</v>
-      </c>
-      <c r="H54">
-        <f>AVERAGE(G52:G54)</f>
-        <v>0.13516666666666666</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8">
-      <c r="B58" s="60">
-        <f>C58/1.13</f>
-        <v>5547049691.1504431</v>
-      </c>
-      <c r="C58" s="47">
-        <f>SUM(C49:C51)</f>
-        <v>6268166151</v>
-      </c>
-      <c r="D58" s="47">
-        <f t="shared" ref="D58:G58" si="8">SUM(D49:D51)</f>
-        <v>7031765132</v>
-      </c>
-      <c r="E58" s="47">
-        <f t="shared" si="8"/>
-        <v>7916802540</v>
-      </c>
-      <c r="F58" s="47">
-        <f t="shared" si="8"/>
-        <v>8945631214</v>
-      </c>
-      <c r="G58" s="47">
-        <f t="shared" si="8"/>
-        <v>10145000000</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8">
-      <c r="D59" s="48">
-        <f>D58/C58-1</f>
-        <v>0.1218217517859157</v>
-      </c>
-      <c r="E59" s="48">
-        <f t="shared" ref="E59:G59" si="9">E58/D58-1</f>
-        <v>0.12586276580433431</v>
-      </c>
-      <c r="F59" s="48">
-        <f t="shared" si="9"/>
-        <v>0.12995507577734777</v>
-      </c>
-      <c r="G59" s="48">
-        <f t="shared" si="9"/>
-        <v>0.13407313104110252</v>
-      </c>
+    <row r="49" spans="2:7">
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="G52" s="42"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="G53" s="42"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="G54" s="42"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="51"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
     </row>
     <row r="65" spans="2:10">
-      <c r="B65" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" s="49">
-        <v>1000</v>
-      </c>
-      <c r="F65" s="49">
-        <v>1000</v>
-      </c>
-      <c r="G65" s="49">
-        <v>1000</v>
-      </c>
-      <c r="H65" s="49">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10">
-      <c r="B66" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
     </row>
     <row r="67" spans="2:10">
-      <c r="B67" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67" s="49">
-        <f t="shared" ref="E67:G67" si="10">E65*E66</f>
-        <v>1000</v>
-      </c>
-      <c r="F67" s="49">
-        <f t="shared" si="10"/>
-        <v>1000</v>
-      </c>
-      <c r="G67" s="49">
-        <f t="shared" si="10"/>
-        <v>1000</v>
-      </c>
-      <c r="H67" s="49">
-        <f t="shared" ref="H67" si="11">H65*H66</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10">
-      <c r="B68" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68">
-        <f>F68/2</f>
-        <v>700</v>
-      </c>
-      <c r="F68">
-        <f>G68/2</f>
-        <v>1400</v>
-      </c>
-      <c r="G68">
-        <f>H68/10</f>
-        <v>2800</v>
-      </c>
-      <c r="H68">
-        <v>28000</v>
-      </c>
-      <c r="I68" t="s">
-        <v>10</v>
-      </c>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
     </row>
     <row r="69" spans="2:10">
-      <c r="B69" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="49">
-        <f t="shared" ref="E69:G69" si="12">E67*E68</f>
-        <v>700000</v>
-      </c>
-      <c r="F69" s="49">
-        <f t="shared" si="12"/>
-        <v>1400000</v>
-      </c>
-      <c r="G69" s="49">
-        <f t="shared" si="12"/>
-        <v>2800000</v>
-      </c>
-      <c r="H69" s="49">
-        <f t="shared" ref="H69" si="13">H67*H68</f>
-        <v>28000000</v>
-      </c>
-      <c r="J69" s="64">
-        <f>(0.11/0.0064)/10</f>
-        <v>1.71875</v>
-      </c>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="J69" s="55"/>
     </row>
     <row r="70" spans="2:10">
-      <c r="E70" s="49"/>
-      <c r="F70">
-        <f>F68/2</f>
-        <v>700</v>
-      </c>
-      <c r="G70">
-        <f>G68/3</f>
-        <v>933.33333333333337</v>
-      </c>
-      <c r="H70">
-        <f>H68/3</f>
-        <v>9333.3333333333339</v>
-      </c>
+      <c r="E70" s="43"/>
     </row>
     <row r="72" spans="2:10">
-      <c r="B72" s="54" t="s">
-        <v>40</v>
+      <c r="B72" s="45" t="s">
+        <v>30</v>
       </c>
       <c r="C72" s="27">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="73" spans="2:10">
-      <c r="B73" s="54" t="s">
-        <v>41</v>
+      <c r="B73" s="45" t="s">
+        <v>31</v>
       </c>
       <c r="C73" s="27">
         <v>0.54</v>
@@ -3320,305 +3142,305 @@
       </c>
     </row>
     <row r="76" spans="2:10">
-      <c r="B76" s="54" t="s">
-        <v>43</v>
+      <c r="B76" s="45" t="s">
+        <v>32</v>
       </c>
       <c r="C76" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D76" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E76" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="2:10">
-      <c r="B77" s="61">
+      <c r="B77" s="52">
         <v>50000</v>
       </c>
-      <c r="C77" s="49">
+      <c r="C77" s="43">
         <f>B77*(1+$C$73)</f>
         <v>77000</v>
       </c>
-      <c r="D77" s="49">
+      <c r="D77" s="43">
         <f>C77*0.25</f>
         <v>19250</v>
       </c>
-      <c r="E77" s="49">
+      <c r="E77" s="43">
         <f>C77*0.5</f>
         <v>38500</v>
       </c>
     </row>
     <row r="78" spans="2:10">
-      <c r="B78" s="61">
+      <c r="B78" s="52">
         <v>60000</v>
       </c>
-      <c r="C78" s="49">
-        <f t="shared" ref="C78:C93" si="14">B78*(1+$C$73)</f>
+      <c r="C78" s="43">
+        <f t="shared" ref="C78:C93" si="4">B78*(1+$C$73)</f>
         <v>92400</v>
       </c>
-      <c r="D78" s="49">
-        <f t="shared" ref="D78:D93" si="15">C78*0.25</f>
+      <c r="D78" s="43">
+        <f t="shared" ref="D78:D93" si="5">C78*0.25</f>
         <v>23100</v>
       </c>
-      <c r="E78" s="49">
-        <f t="shared" ref="E78:E93" si="16">C78*0.5</f>
+      <c r="E78" s="43">
+        <f t="shared" ref="E78:E93" si="6">C78*0.5</f>
         <v>46200</v>
       </c>
     </row>
     <row r="79" spans="2:10">
-      <c r="B79" s="61">
+      <c r="B79" s="52">
         <v>70000</v>
       </c>
-      <c r="C79" s="49">
-        <f t="shared" si="14"/>
+      <c r="C79" s="43">
+        <f t="shared" si="4"/>
         <v>107800</v>
       </c>
-      <c r="D79" s="49">
-        <f t="shared" si="15"/>
+      <c r="D79" s="43">
+        <f t="shared" si="5"/>
         <v>26950</v>
       </c>
-      <c r="E79" s="49">
-        <f t="shared" si="16"/>
+      <c r="E79" s="43">
+        <f t="shared" si="6"/>
         <v>53900</v>
       </c>
     </row>
     <row r="80" spans="2:10">
-      <c r="B80" s="61">
+      <c r="B80" s="52">
         <v>80000</v>
       </c>
-      <c r="C80" s="49">
-        <f t="shared" si="14"/>
+      <c r="C80" s="43">
+        <f t="shared" si="4"/>
         <v>123200</v>
       </c>
-      <c r="D80" s="49">
-        <f t="shared" si="15"/>
+      <c r="D80" s="43">
+        <f t="shared" si="5"/>
         <v>30800</v>
       </c>
-      <c r="E80" s="49">
-        <f t="shared" si="16"/>
+      <c r="E80" s="43">
+        <f t="shared" si="6"/>
         <v>61600</v>
       </c>
     </row>
     <row r="81" spans="2:5">
-      <c r="B81" s="61">
+      <c r="B81" s="52">
         <v>90000</v>
       </c>
-      <c r="C81" s="49">
-        <f t="shared" si="14"/>
+      <c r="C81" s="43">
+        <f t="shared" si="4"/>
         <v>138600</v>
       </c>
-      <c r="D81" s="49">
-        <f t="shared" si="15"/>
+      <c r="D81" s="43">
+        <f t="shared" si="5"/>
         <v>34650</v>
       </c>
-      <c r="E81" s="49">
-        <f t="shared" si="16"/>
+      <c r="E81" s="43">
+        <f t="shared" si="6"/>
         <v>69300</v>
       </c>
     </row>
     <row r="82" spans="2:5">
-      <c r="B82" s="61">
+      <c r="B82" s="52">
         <v>100000</v>
       </c>
-      <c r="C82" s="49">
-        <f t="shared" si="14"/>
+      <c r="C82" s="43">
+        <f t="shared" si="4"/>
         <v>154000</v>
       </c>
-      <c r="D82" s="49">
-        <f t="shared" si="15"/>
+      <c r="D82" s="43">
+        <f t="shared" si="5"/>
         <v>38500</v>
       </c>
-      <c r="E82" s="49">
-        <f t="shared" si="16"/>
+      <c r="E82" s="43">
+        <f t="shared" si="6"/>
         <v>77000</v>
       </c>
     </row>
     <row r="83" spans="2:5">
-      <c r="B83" s="61">
+      <c r="B83" s="52">
         <v>110000</v>
       </c>
-      <c r="C83" s="49">
-        <f t="shared" si="14"/>
+      <c r="C83" s="43">
+        <f t="shared" si="4"/>
         <v>169400</v>
       </c>
-      <c r="D83" s="49">
-        <f t="shared" si="15"/>
+      <c r="D83" s="43">
+        <f t="shared" si="5"/>
         <v>42350</v>
       </c>
-      <c r="E83" s="49">
-        <f t="shared" si="16"/>
+      <c r="E83" s="43">
+        <f t="shared" si="6"/>
         <v>84700</v>
       </c>
     </row>
     <row r="84" spans="2:5">
-      <c r="B84" s="61">
+      <c r="B84" s="52">
         <v>120000</v>
       </c>
-      <c r="C84" s="49">
-        <f t="shared" si="14"/>
+      <c r="C84" s="43">
+        <f t="shared" si="4"/>
         <v>184800</v>
       </c>
-      <c r="D84" s="49">
-        <f t="shared" si="15"/>
+      <c r="D84" s="43">
+        <f t="shared" si="5"/>
         <v>46200</v>
       </c>
-      <c r="E84" s="49">
-        <f t="shared" si="16"/>
+      <c r="E84" s="43">
+        <f t="shared" si="6"/>
         <v>92400</v>
       </c>
     </row>
     <row r="85" spans="2:5">
-      <c r="B85" s="61">
+      <c r="B85" s="52">
         <v>130000</v>
       </c>
-      <c r="C85" s="49">
-        <f t="shared" si="14"/>
+      <c r="C85" s="43">
+        <f t="shared" si="4"/>
         <v>200200</v>
       </c>
-      <c r="D85" s="49">
-        <f t="shared" si="15"/>
+      <c r="D85" s="43">
+        <f t="shared" si="5"/>
         <v>50050</v>
       </c>
-      <c r="E85" s="49">
-        <f t="shared" si="16"/>
+      <c r="E85" s="43">
+        <f t="shared" si="6"/>
         <v>100100</v>
       </c>
     </row>
     <row r="86" spans="2:5">
-      <c r="B86" s="61">
+      <c r="B86" s="52">
         <v>140000</v>
       </c>
-      <c r="C86" s="49">
-        <f t="shared" si="14"/>
+      <c r="C86" s="43">
+        <f t="shared" si="4"/>
         <v>215600</v>
       </c>
-      <c r="D86" s="49">
-        <f t="shared" si="15"/>
+      <c r="D86" s="43">
+        <f t="shared" si="5"/>
         <v>53900</v>
       </c>
-      <c r="E86" s="49">
-        <f t="shared" si="16"/>
+      <c r="E86" s="43">
+        <f t="shared" si="6"/>
         <v>107800</v>
       </c>
     </row>
     <row r="87" spans="2:5">
-      <c r="B87" s="61">
+      <c r="B87" s="52">
         <v>150000</v>
       </c>
-      <c r="C87" s="49">
-        <f t="shared" si="14"/>
+      <c r="C87" s="43">
+        <f t="shared" si="4"/>
         <v>231000</v>
       </c>
-      <c r="D87" s="49">
-        <f t="shared" si="15"/>
+      <c r="D87" s="43">
+        <f t="shared" si="5"/>
         <v>57750</v>
       </c>
-      <c r="E87" s="49">
-        <f t="shared" si="16"/>
+      <c r="E87" s="43">
+        <f t="shared" si="6"/>
         <v>115500</v>
       </c>
     </row>
     <row r="88" spans="2:5">
-      <c r="B88" s="61">
+      <c r="B88" s="52">
         <v>160000</v>
       </c>
-      <c r="C88" s="49">
-        <f t="shared" si="14"/>
+      <c r="C88" s="43">
+        <f t="shared" si="4"/>
         <v>246400</v>
       </c>
-      <c r="D88" s="49">
-        <f t="shared" si="15"/>
+      <c r="D88" s="43">
+        <f t="shared" si="5"/>
         <v>61600</v>
       </c>
-      <c r="E88" s="49">
-        <f t="shared" si="16"/>
+      <c r="E88" s="43">
+        <f t="shared" si="6"/>
         <v>123200</v>
       </c>
     </row>
     <row r="89" spans="2:5">
-      <c r="B89" s="61">
+      <c r="B89" s="52">
         <v>170000</v>
       </c>
-      <c r="C89" s="49">
-        <f t="shared" si="14"/>
+      <c r="C89" s="43">
+        <f t="shared" si="4"/>
         <v>261800</v>
       </c>
-      <c r="D89" s="49">
-        <f t="shared" si="15"/>
+      <c r="D89" s="43">
+        <f t="shared" si="5"/>
         <v>65450</v>
       </c>
-      <c r="E89" s="49">
-        <f t="shared" si="16"/>
+      <c r="E89" s="43">
+        <f t="shared" si="6"/>
         <v>130900</v>
       </c>
     </row>
     <row r="90" spans="2:5">
-      <c r="B90" s="61">
+      <c r="B90" s="52">
         <v>180000</v>
       </c>
-      <c r="C90" s="49">
-        <f t="shared" si="14"/>
+      <c r="C90" s="43">
+        <f t="shared" si="4"/>
         <v>277200</v>
       </c>
-      <c r="D90" s="49">
-        <f t="shared" si="15"/>
+      <c r="D90" s="43">
+        <f t="shared" si="5"/>
         <v>69300</v>
       </c>
-      <c r="E90" s="49">
-        <f t="shared" si="16"/>
+      <c r="E90" s="43">
+        <f t="shared" si="6"/>
         <v>138600</v>
       </c>
     </row>
     <row r="91" spans="2:5">
-      <c r="B91" s="61">
+      <c r="B91" s="52">
         <v>190000</v>
       </c>
-      <c r="C91" s="49">
-        <f t="shared" si="14"/>
+      <c r="C91" s="43">
+        <f t="shared" si="4"/>
         <v>292600</v>
       </c>
-      <c r="D91" s="49">
-        <f t="shared" si="15"/>
+      <c r="D91" s="43">
+        <f t="shared" si="5"/>
         <v>73150</v>
       </c>
-      <c r="E91" s="49">
-        <f t="shared" si="16"/>
+      <c r="E91" s="43">
+        <f t="shared" si="6"/>
         <v>146300</v>
       </c>
     </row>
     <row r="92" spans="2:5">
-      <c r="B92" s="61">
+      <c r="B92" s="52">
         <v>200000</v>
       </c>
-      <c r="C92" s="49">
-        <f t="shared" si="14"/>
+      <c r="C92" s="43">
+        <f t="shared" si="4"/>
         <v>308000</v>
       </c>
-      <c r="D92" s="49">
-        <f t="shared" si="15"/>
+      <c r="D92" s="43">
+        <f t="shared" si="5"/>
         <v>77000</v>
       </c>
-      <c r="E92" s="49">
-        <f t="shared" si="16"/>
+      <c r="E92" s="43">
+        <f t="shared" si="6"/>
         <v>154000</v>
       </c>
     </row>
     <row r="93" spans="2:5">
-      <c r="B93" s="61">
+      <c r="B93" s="52">
         <v>210000</v>
       </c>
-      <c r="C93" s="49">
-        <f t="shared" si="14"/>
+      <c r="C93" s="43">
+        <f t="shared" si="4"/>
         <v>323400</v>
       </c>
-      <c r="D93" s="49">
-        <f t="shared" si="15"/>
+      <c r="D93" s="43">
+        <f t="shared" si="5"/>
         <v>80850</v>
       </c>
-      <c r="E93" s="49">
-        <f t="shared" si="16"/>
+      <c r="E93" s="43">
+        <f t="shared" si="6"/>
         <v>161700</v>
       </c>
     </row>
@@ -3631,11 +3453,11 @@
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C4:F4"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup scale="64" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3645,243 +3467,243 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H23"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" thickBot="1"/>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A4" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="73"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="95"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
+    </row>
+    <row r="6" spans="1:8" ht="84.75" customHeight="1" thickBot="1">
+      <c r="A6" s="96"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="81"/>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A7" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="89"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="77"/>
+    </row>
+    <row r="9" spans="1:8" ht="123.75" customHeight="1" thickBot="1">
+      <c r="A9" s="90"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-    </row>
-    <row r="3" spans="1:8" ht="14" thickBot="1"/>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A4" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="88"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="110"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="92"/>
-    </row>
-    <row r="6" spans="1:8" ht="84.75" customHeight="1" thickBot="1">
-      <c r="A6" s="111"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="96"/>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="103" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="104"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="92"/>
-    </row>
-    <row r="9" spans="1:8" ht="123.75" customHeight="1" thickBot="1">
-      <c r="A9" s="105"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="96"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="106" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="98" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="73"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="107"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="92"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="77"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="107"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="92"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="77"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="107"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="92"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="77"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="107"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="92"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="77"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="107"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="92"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="77"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="107"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="92"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="107"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="107"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="92"/>
-    </row>
-    <row r="19" spans="1:8" ht="23" customHeight="1">
-      <c r="A19" s="107"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="92"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="77"/>
+    </row>
+    <row r="19" spans="1:8" ht="23.1" customHeight="1">
+      <c r="A19" s="92"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="77"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="107"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="92"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="107"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="92"/>
-    </row>
-    <row r="22" spans="1:8" ht="35" customHeight="1">
-      <c r="A22" s="107"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="92"/>
-    </row>
-    <row r="23" spans="1:8" ht="65" customHeight="1" thickBot="1">
-      <c r="A23" s="108"/>
-      <c r="B23" s="102"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="96"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
+    </row>
+    <row r="22" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A22" s="92"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
+    </row>
+    <row r="23" spans="1:8" ht="65.099999999999994" customHeight="1" thickBot="1">
+      <c r="A23" s="93"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3893,7 +3715,7 @@
     <mergeCell ref="A10:A23"/>
     <mergeCell ref="A4:A6"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/phaseIIProposal/commercialization/ProFormaLicensing.xlsx
+++ b/phaseIIProposal/commercialization/ProFormaLicensing.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gsabin/RNET/projects/vv-neams/vv-neams/phaseIIProposal/commercialization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9AA3C9-83D8-451F-910A-5DFA14A79668}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC76E9A0-5FB0-F14D-98E5-6B14B1E72741}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProForma income" sheetId="1" r:id="rId1"/>
     <sheet name="Assumptions" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'ProForma income'!$B$2:$G$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'ProForma income'!$B$2:$G$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,16 +47,26 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t>2012: $160M (Cloudera, Hortonworks, MapR)
-CAGR: 23% for 2013-2017</t>
+          <t xml:space="preserve">2012: $160M (Cloudera, Hortonworks, MapR)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>CAGR: 23% for 2013-2017</t>
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -78,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="B34" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -100,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="B35" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <r>
       <t>How are your consulting services estimated?  Are there any assumptions about the terms of your planned licensing arrangement that you need to state to justify the revenues or fees in this section?  Will you be applying for Phase IIb?</t>
@@ -283,29 +293,35 @@
     <t>Phase II (2020)</t>
   </si>
   <si>
-    <t>Supports Contracts @$5000 each</t>
-  </si>
-  <si>
-    <t>Commercial Licences ($20,000 each)</t>
-  </si>
-  <si>
-    <t>R&amp;D Contracts ($100,000 each)</t>
-  </si>
-  <si>
-    <t>Integration Contracts ($100,000 each)</t>
-  </si>
-  <si>
-    <t>Pro Forma Income Statement (VnV Toolkit)</t>
-  </si>
-  <si>
     <t>For years 2019 to 2023</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Pro Forma Income Statement (V&amp;V Toolkit)</t>
+  </si>
+  <si>
+    <t>User Support Contracts ($5,000/user)</t>
+  </si>
+  <si>
+    <t>Integration Contracts ($500,000)</t>
+  </si>
+  <si>
+    <t>Commercial Licences ($75,000 each)</t>
+  </si>
+  <si>
+    <t>R&amp;D Contracts ($225,000 each)</t>
+  </si>
+  <si>
+    <t>Third Party User Royalty ($1,500/user)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
@@ -313,8 +329,9 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -532,13 +549,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -588,6 +598,13 @@
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -686,7 +703,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1344,6 +1361,19 @@
       </left>
       <right style="medium">
         <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
@@ -1401,7 +1431,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1433,9 +1463,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1459,8 +1486,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1496,7 +1523,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1528,7 +1554,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1541,6 +1566,37 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="51" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="47" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1550,16 +1606,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1590,7 +1652,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1633,72 +1695,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="42" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="47" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="42" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="42" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="47" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="52" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -1837,13 +1874,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1892,16 +1929,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>577934</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>339809</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>686421</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>115888</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>448296</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44451</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1924,8 +1961,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11669267" y="0"/>
-          <a:ext cx="6924154" cy="6858000"/>
+          <a:off x="15103559" y="0"/>
+          <a:ext cx="5998112" cy="6886576"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2284,98 +2321,127 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J93"/>
+  <dimension ref="A2:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="32.875" style="45" customWidth="1"/>
-    <col min="3" max="7" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="22.5">
-      <c r="B2" s="118" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
-    </row>
-    <row r="4" spans="1:9" ht="15">
-      <c r="B4" s="46"/>
-      <c r="C4" s="66" t="s">
+    <row r="2" spans="1:13" ht="23" x14ac:dyDescent="0.15">
+      <c r="B2" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
+    </row>
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B4" s="44"/>
+      <c r="C4" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-    </row>
-    <row r="5" spans="1:9" ht="15">
-      <c r="C5" s="119" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-    </row>
-    <row r="6" spans="1:9" ht="13.5" thickBot="1"/>
-    <row r="7" spans="1:9" ht="18">
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="C5" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+    </row>
+    <row r="6" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="str">
+        <f>C7</f>
+        <v>Phase II (2019)</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" ref="J6" si="0">D7</f>
+        <v>Phase II (2020)</v>
+      </c>
+      <c r="K6">
+        <f>E7</f>
+        <v>2021</v>
+      </c>
+      <c r="L6">
+        <f>F7</f>
+        <v>2022</v>
+      </c>
+      <c r="M6">
+        <f>G7</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="30">
         <v>2021</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="30">
         <v>2022</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="31">
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="25.5">
-      <c r="B8" s="21" t="s">
+    <row r="8" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="B8" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="121">
         <v>7000000000</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="121">
         <f>C8*(1+C9)</f>
         <v>7770000000.000001</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="121">
         <f>D8*(1+D9)</f>
         <v>8624700000.0000019</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="121">
         <f>E8*(1+E9)</f>
         <v>9573417000.0000038</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="122">
         <f>F8*(1+F9)</f>
         <v>10626492870.000006</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="25.5">
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="108" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="7">
@@ -2390,67 +2456,67 @@
       <c r="F9" s="7">
         <v>0.11</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="109">
         <v>0.11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="35">
-        <f>C16+C17</f>
+      <c r="C10" s="121">
+        <f>C17+C18</f>
         <v>0</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="121">
         <v>100000</v>
       </c>
-      <c r="E10" s="35">
-        <f>SUM(E14:E18)</f>
-        <v>570000</v>
-      </c>
-      <c r="F10" s="35">
-        <f t="shared" ref="F10:G10" si="0">SUM(F14:F18)</f>
-        <v>1460000</v>
-      </c>
-      <c r="G10" s="35">
-        <f t="shared" si="0"/>
-        <v>3180000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" thickBot="1">
+      <c r="E10" s="121">
+        <f>SUM(E14:E19)</f>
+        <v>637500</v>
+      </c>
+      <c r="F10" s="121">
+        <f t="shared" ref="F10:G10" si="1">SUM(F14:F19)</f>
+        <v>1425000</v>
+      </c>
+      <c r="G10" s="122">
+        <f t="shared" si="1"/>
+        <v>3875000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="58">
-        <f t="shared" ref="C11:D11" si="1">C10/C8</f>
+      <c r="C11" s="55">
+        <f t="shared" ref="C11:D11" si="2">C10/C8</f>
         <v>0</v>
       </c>
-      <c r="D11" s="58">
-        <f t="shared" si="1"/>
+      <c r="D11" s="55">
+        <f t="shared" si="2"/>
         <v>1.2870012870012868E-5</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="55">
         <f>E10/E8</f>
-        <v>6.6089255278444458E-5</v>
-      </c>
-      <c r="F11" s="58">
+        <v>7.3915614456154983E-5</v>
+      </c>
+      <c r="F11" s="55">
         <f>F10/F8</f>
-        <v>1.5250563095705528E-4</v>
-      </c>
-      <c r="G11" s="59">
+        <v>1.4884967405055053E-4</v>
+      </c>
+      <c r="G11" s="56">
         <f>G10/G8</f>
-        <v>2.9925207111158571E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="13.5" thickBot="1"/>
-    <row r="13" spans="1:9" ht="18">
+        <v>3.6465464640169639E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="9"/>
@@ -2459,997 +2525,1132 @@
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="18">
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="116" t="s">
+      <c r="B14" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="117">
+        <f>$H14*I14</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="117">
+        <f t="shared" ref="D14:G14" si="3">$H14*J14</f>
+        <v>250000</v>
+      </c>
+      <c r="E14" s="117">
+        <f t="shared" si="3"/>
+        <v>250000</v>
+      </c>
+      <c r="F14" s="117">
+        <f t="shared" si="3"/>
+        <v>500000</v>
+      </c>
+      <c r="G14" s="118">
+        <f t="shared" si="3"/>
+        <v>500000</v>
+      </c>
+      <c r="H14">
+        <v>250000</v>
+      </c>
+      <c r="I14" s="115">
+        <v>0</v>
+      </c>
+      <c r="J14" s="115">
+        <v>1</v>
+      </c>
+      <c r="K14" s="115">
+        <v>1</v>
+      </c>
+      <c r="L14" s="115">
+        <v>2</v>
+      </c>
+      <c r="M14" s="115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="117">
+        <f t="shared" ref="C15:C18" si="4">$H15*I15</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="117">
+        <f t="shared" ref="D15:D18" si="5">$H15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="117">
+        <f t="shared" ref="E15:E18" si="6">$H15*K15</f>
+        <v>37500</v>
+      </c>
+      <c r="F15" s="117">
+        <f t="shared" ref="F15:F18" si="7">$H15*L15</f>
+        <v>300000</v>
+      </c>
+      <c r="G15" s="118">
+        <f t="shared" ref="G15:G18" si="8">$H15*M15</f>
+        <v>2250000</v>
+      </c>
+      <c r="H15">
+        <v>1500</v>
+      </c>
+      <c r="I15" s="115">
+        <v>0</v>
+      </c>
+      <c r="J15" s="115">
+        <v>0</v>
+      </c>
+      <c r="K15" s="115">
+        <v>25</v>
+      </c>
+      <c r="L15" s="115">
+        <v>200</v>
+      </c>
+      <c r="M15" s="115">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="101">
+      <c r="C16" s="117">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D14" s="101">
-        <v>100000</v>
-      </c>
-      <c r="E14" s="101">
+      <c r="D16" s="117">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="117">
+        <f t="shared" si="6"/>
+        <v>50000</v>
+      </c>
+      <c r="F16" s="117">
+        <f t="shared" si="7"/>
+        <v>250000</v>
+      </c>
+      <c r="G16" s="118">
+        <f t="shared" si="8"/>
+        <v>750000</v>
+      </c>
+      <c r="H16" s="111">
+        <v>5000</v>
+      </c>
+      <c r="I16" s="115">
+        <v>0</v>
+      </c>
+      <c r="J16" s="115">
+        <v>0</v>
+      </c>
+      <c r="K16" s="115">
+        <v>10</v>
+      </c>
+      <c r="L16" s="115">
+        <v>50</v>
+      </c>
+      <c r="M16" s="115">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="117">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="117">
+        <f t="shared" si="6"/>
+        <v>75000</v>
+      </c>
+      <c r="F17" s="117">
+        <f t="shared" si="7"/>
+        <v>150000</v>
+      </c>
+      <c r="G17" s="118">
+        <f t="shared" si="8"/>
+        <v>150000</v>
+      </c>
+      <c r="H17" s="24">
+        <v>75000</v>
+      </c>
+      <c r="I17" s="116">
+        <v>0</v>
+      </c>
+      <c r="J17" s="116">
+        <v>0</v>
+      </c>
+      <c r="K17" s="116">
+        <v>1</v>
+      </c>
+      <c r="L17" s="116">
+        <v>2</v>
+      </c>
+      <c r="M17" s="116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="117">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="117">
+        <f t="shared" si="6"/>
+        <v>225000</v>
+      </c>
+      <c r="F18" s="117">
+        <f t="shared" si="7"/>
+        <v>225000</v>
+      </c>
+      <c r="G18" s="118">
+        <f t="shared" si="8"/>
+        <v>225000</v>
+      </c>
+      <c r="H18" s="58">
+        <v>225000</v>
+      </c>
+      <c r="I18" s="115">
+        <v>0</v>
+      </c>
+      <c r="J18" s="115">
+        <v>0</v>
+      </c>
+      <c r="K18" s="115">
+        <v>1</v>
+      </c>
+      <c r="L18" s="115">
+        <v>1</v>
+      </c>
+      <c r="M18" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="119">
+        <v>500000</v>
+      </c>
+      <c r="D19" s="119">
+        <v>500000</v>
+      </c>
+      <c r="E19" s="119">
+        <v>0</v>
+      </c>
+      <c r="F19" s="119">
+        <v>0</v>
+      </c>
+      <c r="G19" s="120">
+        <v>0</v>
+      </c>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
+    </row>
+    <row r="20" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="114">
+        <f>SUM(C17:C19)</f>
+        <v>500000</v>
+      </c>
+      <c r="D20" s="114">
+        <f>SUM(D14:D19)</f>
+        <v>750000</v>
+      </c>
+      <c r="E20" s="114">
+        <f>SUM(E14:E19)</f>
+        <v>637500</v>
+      </c>
+      <c r="F20" s="114">
+        <f>SUM(F14:F19)</f>
+        <v>1425000</v>
+      </c>
+      <c r="G20" s="57">
+        <f>SUM(G14:G19)</f>
+        <v>3875000</v>
+      </c>
+      <c r="H20" s="112"/>
+    </row>
+    <row r="21" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="71"/>
+    </row>
+    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="59">
+        <v>0</v>
+      </c>
+      <c r="D23" s="59">
+        <v>0</v>
+      </c>
+      <c r="E23" s="59">
+        <v>0</v>
+      </c>
+      <c r="F23" s="59">
+        <v>0</v>
+      </c>
+      <c r="G23" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="59">
+        <v>0</v>
+      </c>
+      <c r="D24" s="60">
+        <f>E85</f>
+        <v>92400</v>
+      </c>
+      <c r="E24" s="60">
+        <f>C85</f>
+        <v>184800</v>
+      </c>
+      <c r="F24" s="60">
+        <f>2*E24</f>
+        <v>369600</v>
+      </c>
+      <c r="G24" s="61">
+        <f>F24</f>
+        <v>369600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="29" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="60">
+        <v>0</v>
+      </c>
+      <c r="D25" s="60">
+        <f>E81</f>
+        <v>61600</v>
+      </c>
+      <c r="E25" s="60">
+        <f>2*D25</f>
+        <v>123200</v>
+      </c>
+      <c r="F25" s="60">
+        <f>2*E25</f>
+        <v>246400</v>
+      </c>
+      <c r="G25" s="61">
+        <f>F25</f>
+        <v>246400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="59">
+        <v>0</v>
+      </c>
+      <c r="D26" s="59">
+        <f>(D24+D28+D29+D30)*$C$73</f>
+        <v>7168.0000000000009</v>
+      </c>
+      <c r="E26" s="59">
+        <f>(E24+E28+E29+E30)*$C$73</f>
+        <v>30072.000000000004</v>
+      </c>
+      <c r="F26" s="59">
+        <f t="shared" ref="F26" si="9">(F24+F28+F29+F30)*$C$73</f>
+        <v>56476.000000000007</v>
+      </c>
+      <c r="G26" s="62">
+        <f>F25*1.25</f>
+        <v>308000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="63">
+        <f>C19*0.93</f>
+        <v>465000</v>
+      </c>
+      <c r="D27" s="63">
+        <f>D19*0.93</f>
+        <v>465000</v>
+      </c>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
+    </row>
+    <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="60">
+        <v>0</v>
+      </c>
+      <c r="D28" s="60">
+        <v>0</v>
+      </c>
+      <c r="E28" s="60">
+        <f>C85</f>
+        <v>184800</v>
+      </c>
+      <c r="F28" s="60">
+        <f>E28*1.5</f>
+        <v>277200</v>
+      </c>
+      <c r="G28" s="61">
+        <f>F28*1.25</f>
+        <v>346500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="59">
+        <v>0</v>
+      </c>
+      <c r="D29" s="59">
+        <v>0</v>
+      </c>
+      <c r="E29" s="60">
+        <v>50000</v>
+      </c>
+      <c r="F29" s="60">
+        <v>150000</v>
+      </c>
+      <c r="G29" s="61">
         <v>300000</v>
       </c>
-      <c r="F14" s="101">
-        <v>300000</v>
-      </c>
-      <c r="G14" s="102">
-        <v>300000</v>
-      </c>
-      <c r="I14" s="44"/>
-    </row>
-    <row r="15" spans="1:9" ht="18">
-      <c r="A15" s="2"/>
-      <c r="B15" s="116" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="101">
+    </row>
+    <row r="30" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="63">
         <v>0</v>
       </c>
-      <c r="D15" s="101">
-        <v>0</v>
-      </c>
-      <c r="E15" s="101">
-        <v>150000</v>
-      </c>
-      <c r="F15" s="101">
-        <v>1000000</v>
-      </c>
-      <c r="G15" s="102">
-        <v>2500000</v>
-      </c>
-      <c r="H15" s="99"/>
-      <c r="I15" s="44"/>
-    </row>
-    <row r="16" spans="1:9" s="25" customFormat="1" ht="18">
-      <c r="A16" s="2"/>
-      <c r="B16" s="116" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="103">
-        <v>0</v>
-      </c>
-      <c r="D16" s="103">
-        <v>0</v>
-      </c>
-      <c r="E16" s="103">
+      <c r="D30" s="64">
+        <v>10000</v>
+      </c>
+      <c r="E30" s="65">
+        <v>10000</v>
+      </c>
+      <c r="F30" s="66">
+        <v>10000</v>
+      </c>
+      <c r="G30" s="67">
         <v>20000</v>
       </c>
-      <c r="F16" s="103">
-        <v>60000</v>
-      </c>
-      <c r="G16" s="104">
-        <v>180000</v>
-      </c>
-      <c r="I16" s="56"/>
-    </row>
-    <row r="17" spans="1:9" ht="18">
-      <c r="A17" s="2"/>
-      <c r="B17" s="116" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="101">
-        <v>0</v>
-      </c>
-      <c r="D17" s="101">
-        <v>0</v>
-      </c>
-      <c r="E17" s="101">
-        <v>100000</v>
-      </c>
-      <c r="F17" s="101">
-        <v>100000</v>
-      </c>
-      <c r="G17" s="102">
-        <v>200000</v>
-      </c>
-      <c r="H17" s="97"/>
-      <c r="I17" s="44"/>
-    </row>
-    <row r="18" spans="1:9" ht="30.95" customHeight="1" thickBot="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="117" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="105">
-        <v>500000</v>
-      </c>
-      <c r="D18" s="105">
-        <v>500000</v>
-      </c>
-      <c r="E18" s="105">
-        <v>0</v>
-      </c>
-      <c r="F18" s="105">
-        <v>0</v>
-      </c>
-      <c r="G18" s="106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="19.5" thickTop="1" thickBot="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="15">
-        <f>SUM(C16:C18)</f>
-        <v>500000</v>
-      </c>
-      <c r="D19" s="15">
-        <f>SUM(D14:D18)</f>
-        <v>600000</v>
-      </c>
-      <c r="E19" s="15">
-        <f>SUM(E14:E18)</f>
-        <v>570000</v>
-      </c>
-      <c r="F19" s="15">
-        <f>SUM(F14:F18)</f>
-        <v>1460000</v>
-      </c>
-      <c r="G19" s="60">
-        <f>SUM(G14:G18)</f>
-        <v>3180000</v>
-      </c>
-      <c r="H19" s="98"/>
-    </row>
-    <row r="20" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="25"/>
-    </row>
-    <row r="21" spans="1:9" ht="18">
-      <c r="A21" s="2">
-        <v>3</v>
-      </c>
-      <c r="B21" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="63"/>
-    </row>
-    <row r="22" spans="1:9" ht="25.5">
-      <c r="A22" s="2"/>
-      <c r="B22" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="107">
-        <v>0</v>
-      </c>
-      <c r="D22" s="107">
-        <v>0</v>
-      </c>
-      <c r="E22" s="107">
-        <v>0</v>
-      </c>
-      <c r="F22" s="107">
-        <v>0</v>
-      </c>
-      <c r="G22" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="18">
-      <c r="A23" s="2"/>
-      <c r="B23" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="107">
-        <v>0</v>
-      </c>
-      <c r="D23" s="108">
-        <f>E84</f>
-        <v>92400</v>
-      </c>
-      <c r="E23" s="108">
-        <f>C84</f>
-        <v>184800</v>
-      </c>
-      <c r="F23" s="108">
-        <f>2*E23</f>
-        <v>369600</v>
-      </c>
-      <c r="G23" s="109">
-        <f>F23</f>
-        <v>369600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="26.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="108">
-        <v>0</v>
-      </c>
-      <c r="D24" s="108">
-        <f>E80</f>
-        <v>61600</v>
-      </c>
-      <c r="E24" s="108">
-        <f>2*D24</f>
-        <v>123200</v>
-      </c>
-      <c r="F24" s="108">
-        <f>2*E24</f>
-        <v>246400</v>
-      </c>
-      <c r="G24" s="109">
-        <f>F24</f>
-        <v>246400</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="25.5">
-      <c r="A25" s="2"/>
-      <c r="B25" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="107">
-        <v>0</v>
-      </c>
-      <c r="D25" s="107">
-        <f>(D23+D27+D28+D29)*$C$72</f>
-        <v>7168.0000000000009</v>
-      </c>
-      <c r="E25" s="107">
-        <f>(E23+E27+E28+E29)*$C$72</f>
-        <v>30072.000000000004</v>
-      </c>
-      <c r="F25" s="107">
-        <f t="shared" ref="F25" si="2">(F23+F27+F28+F29)*$C$72</f>
-        <v>56476.000000000007</v>
-      </c>
-      <c r="G25" s="110">
-        <f>F24*1.25</f>
-        <v>308000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="111">
-        <f>C18*0.93</f>
+    </row>
+    <row r="31" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="15">
+        <f>SUM(C23:C30)</f>
         <v>465000</v>
       </c>
-      <c r="D26" s="111">
-        <f>D18*0.93</f>
-        <v>465000</v>
-      </c>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="112"/>
-    </row>
-    <row r="27" spans="1:9" ht="18">
-      <c r="A27" s="2"/>
-      <c r="B27" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="108">
-        <v>0</v>
-      </c>
-      <c r="D27" s="108">
-        <v>0</v>
-      </c>
-      <c r="E27" s="108">
-        <f>C84</f>
-        <v>184800</v>
-      </c>
-      <c r="F27" s="108">
-        <f>E27*1.5</f>
-        <v>277200</v>
-      </c>
-      <c r="G27" s="109">
-        <f>F27*1.25</f>
-        <v>346500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="18">
-      <c r="A28" s="2"/>
-      <c r="B28" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="107">
-        <v>0</v>
-      </c>
-      <c r="D28" s="107">
-        <v>0</v>
-      </c>
-      <c r="E28" s="108">
-        <v>50000</v>
-      </c>
-      <c r="F28" s="108">
-        <v>150000</v>
-      </c>
-      <c r="G28" s="109">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="111">
-        <v>0</v>
-      </c>
-      <c r="D29" s="112">
-        <v>10000</v>
-      </c>
-      <c r="E29" s="113">
-        <v>10000</v>
-      </c>
-      <c r="F29" s="114">
-        <v>10000</v>
-      </c>
-      <c r="G29" s="115">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="36.75" thickBot="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="16">
-        <f>SUM(C22:C29)</f>
-        <v>465000</v>
-      </c>
-      <c r="D30" s="16">
-        <f>SUM(D22:D29)</f>
+      <c r="D31" s="15">
+        <f>SUM(D23:D30)</f>
         <v>636168</v>
       </c>
-      <c r="E30" s="16">
-        <f>SUM(E22:E29)</f>
+      <c r="E31" s="15">
+        <f>SUM(E23:E30)</f>
         <v>582872</v>
       </c>
-      <c r="F30" s="16">
-        <f>SUM(F22:F29)</f>
+      <c r="F31" s="15">
+        <f>SUM(F23:F30)</f>
         <v>1109676</v>
       </c>
-      <c r="G30" s="17">
-        <f>SUM(G22:G29)</f>
+      <c r="G31" s="16">
+        <f>SUM(G23:G30)</f>
         <v>1590500</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="1:9" ht="18">
-      <c r="A32" s="2">
+    <row r="32" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
         <v>4</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B33" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="24"/>
-    </row>
-    <row r="33" spans="1:10" ht="26.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="53" t="s">
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="37">
-        <f>C19-C30</f>
+      <c r="C34" s="36">
+        <f>C20-C31</f>
         <v>35000</v>
       </c>
-      <c r="D33" s="37">
-        <f>D19-D30</f>
-        <v>-36168</v>
-      </c>
-      <c r="E33" s="37">
-        <f>E19-E30</f>
-        <v>-12872</v>
-      </c>
-      <c r="F33" s="37">
-        <f>F19-F30</f>
-        <v>350324</v>
-      </c>
-      <c r="G33" s="38">
-        <f>G19-G30</f>
-        <v>1589500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="13.5" thickBot="1">
-      <c r="B34" s="54" t="s">
+      <c r="D34" s="36">
+        <f>D20-D31</f>
+        <v>113832</v>
+      </c>
+      <c r="E34" s="36">
+        <f>E20-E31</f>
+        <v>54628</v>
+      </c>
+      <c r="F34" s="36">
+        <f>F20-F31</f>
+        <v>315324</v>
+      </c>
+      <c r="G34" s="37">
+        <f>G20-G31</f>
+        <v>2284500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="33">
-        <f>C33/C19</f>
+      <c r="C35" s="32">
+        <f>C34/C20</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D34" s="33">
-        <f>D33/D19</f>
-        <v>-6.028E-2</v>
-      </c>
-      <c r="E34" s="33">
-        <f>E33/E19</f>
-        <v>-2.2582456140350878E-2</v>
-      </c>
-      <c r="F34" s="33">
-        <f>F33/F19</f>
-        <v>0.23994794520547946</v>
-      </c>
-      <c r="G34" s="34">
-        <f>G33/G19</f>
-        <v>0.49984276729559746</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A35" s="2"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" ht="18">
-      <c r="A36" s="2">
+      <c r="D35" s="32">
+        <f>D34/D20</f>
+        <v>0.15177599999999999</v>
+      </c>
+      <c r="E35" s="32">
+        <f>E34/E20</f>
+        <v>8.5690980392156862E-2</v>
+      </c>
+      <c r="F35" s="32">
+        <f>F34/F20</f>
+        <v>0.22128</v>
+      </c>
+      <c r="G35" s="33">
+        <f>G34/G20</f>
+        <v>0.58954838709677415</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
         <v>5</v>
       </c>
-      <c r="B36" s="61" t="s">
+      <c r="B37" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="63"/>
-    </row>
-    <row r="37" spans="1:10" ht="18">
-      <c r="A37" s="2"/>
-      <c r="B37" s="21" t="s">
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="71"/>
+    </row>
+    <row r="38" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="35">
-        <f>C19-C30</f>
+      <c r="C38" s="34">
+        <f>C20-C31</f>
         <v>35000</v>
       </c>
-      <c r="D37" s="35">
-        <f>D19-D30</f>
-        <v>-36168</v>
-      </c>
-      <c r="E37" s="35">
-        <f>E19-E30</f>
-        <v>-12872</v>
-      </c>
-      <c r="F37" s="35">
-        <f>F19-F30</f>
-        <v>350324</v>
-      </c>
-      <c r="G37" s="36">
-        <f>G19-G30</f>
-        <v>1589500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="18">
-      <c r="A38" s="2"/>
-      <c r="B38" s="21" t="s">
+      <c r="D38" s="34">
+        <f>D20-D31</f>
+        <v>113832</v>
+      </c>
+      <c r="E38" s="34">
+        <f>E20-E31</f>
+        <v>54628</v>
+      </c>
+      <c r="F38" s="34">
+        <f>F20-F31</f>
+        <v>315324</v>
+      </c>
+      <c r="G38" s="35">
+        <f>G20-G31</f>
+        <v>2284500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C39" s="7">
         <v>0.35</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D39" s="7">
         <v>0.35</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E39" s="7">
         <v>0.35</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F39" s="7">
         <v>0.35</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G39" s="8">
         <v>0.35</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A39" s="2"/>
-      <c r="B39" s="48" t="s">
+    <row r="40" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="39">
-        <f>IF(C37&gt;0,C37*C38,0)</f>
+      <c r="C40" s="38">
+        <f>IF(C38&gt;0,C38*C39,0)</f>
         <v>12250</v>
       </c>
-      <c r="D39" s="39">
-        <f t="shared" ref="D39:G39" si="3">IF(D37&gt;0,D37*D38,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="39">
-        <f t="shared" si="3"/>
-        <v>122613.4</v>
-      </c>
-      <c r="G39" s="40">
-        <f t="shared" si="3"/>
-        <v>556325</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="18">
-      <c r="A40" s="2"/>
-      <c r="B40" s="50" t="s">
+      <c r="D40" s="38">
+        <f t="shared" ref="D40:G40" si="10">IF(D38&gt;0,D38*D39,0)</f>
+        <v>39841.199999999997</v>
+      </c>
+      <c r="E40" s="38">
+        <f t="shared" si="10"/>
+        <v>19119.8</v>
+      </c>
+      <c r="F40" s="38">
+        <f t="shared" si="10"/>
+        <v>110363.4</v>
+      </c>
+      <c r="G40" s="39">
+        <f t="shared" si="10"/>
+        <v>799575</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="18">
-        <f>IF(C37&lt;0,C37,C37*(1-C38))</f>
+      <c r="C41" s="17">
+        <f>IF(C38&lt;0,C38,C38*(1-C39))</f>
         <v>22750</v>
       </c>
-      <c r="D40" s="18">
-        <f>IF(D37&lt;0,D37,D37*(1-D38))</f>
-        <v>-36168</v>
-      </c>
-      <c r="E40" s="18">
-        <f>IF(E37&lt;0,E37,E37*(1-E38))</f>
-        <v>-12872</v>
-      </c>
-      <c r="F40" s="18">
-        <f>IF(F37&lt;0,F37,F37*(1-F38))</f>
-        <v>227710.6</v>
-      </c>
-      <c r="G40" s="23">
-        <f>IF(G37&lt;0,G37,G37*(1-G38))</f>
-        <v>1033175</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A41" s="2"/>
-      <c r="B41" s="12" t="s">
+      <c r="D41" s="17">
+        <f>IF(D38&lt;0,D38,D38*(1-D39))</f>
+        <v>73990.8</v>
+      </c>
+      <c r="E41" s="17">
+        <f>IF(E38&lt;0,E38,E38*(1-E39))</f>
+        <v>35508.200000000004</v>
+      </c>
+      <c r="F41" s="17">
+        <f>IF(F38&lt;0,F38,F38*(1-F39))</f>
+        <v>204960.6</v>
+      </c>
+      <c r="G41" s="22">
+        <f>IF(G38&lt;0,G38,G38*(1-G39))</f>
+        <v>1484925</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="13">
-        <f>C40/C19</f>
+      <c r="C42" s="13">
+        <f>C41/C20</f>
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="D41" s="13">
-        <f>D40/D19</f>
-        <v>-6.028E-2</v>
-      </c>
-      <c r="E41" s="13">
-        <f>E40/E19</f>
-        <v>-2.2582456140350878E-2</v>
-      </c>
-      <c r="F41" s="13">
-        <f>F40/F19</f>
-        <v>0.15596616438356165</v>
-      </c>
-      <c r="G41" s="14">
-        <f>G40/G19</f>
-        <v>0.32489779874213837</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="C44" s="22"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75">
-      <c r="F45" s="4"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="G52" s="42"/>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="G53" s="42"/>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="G54" s="42"/>
-    </row>
-    <row r="58" spans="2:7">
-      <c r="B58" s="51"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-    </row>
-    <row r="65" spans="2:10">
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-    </row>
-    <row r="67" spans="2:10">
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-    </row>
-    <row r="69" spans="2:10">
-      <c r="E69" s="43"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="43"/>
-      <c r="J69" s="55"/>
-    </row>
-    <row r="70" spans="2:10">
-      <c r="E70" s="43"/>
-    </row>
-    <row r="72" spans="2:10">
-      <c r="B72" s="45" t="s">
+      <c r="D42" s="13">
+        <f>D41/D20</f>
+        <v>9.8654400000000003E-2</v>
+      </c>
+      <c r="E42" s="13">
+        <f>E41/E20</f>
+        <v>5.569913725490197E-2</v>
+      </c>
+      <c r="F42" s="13">
+        <f>F41/F20</f>
+        <v>0.14383200000000002</v>
+      </c>
+      <c r="G42" s="14">
+        <f>G41/G20</f>
+        <v>0.38320645161290323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C45" s="21"/>
+    </row>
+    <row r="46" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="F46" s="4"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G53" s="41"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G54" s="41"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G55" s="41"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B59" s="49"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="J70" s="53"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="E71" s="42"/>
+    </row>
+    <row r="73" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="B73" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="27">
+      <c r="C73" s="26">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="73" spans="2:10">
-      <c r="B73" s="45" t="s">
+    <row r="74" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="B74" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C73" s="27">
+      <c r="C74" s="26">
         <v>0.54</v>
       </c>
     </row>
-    <row r="75" spans="2:10">
-      <c r="J75">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J76">
         <f>500*350</f>
         <v>175000</v>
       </c>
     </row>
-    <row r="76" spans="2:10">
-      <c r="B76" s="45" t="s">
+    <row r="77" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="B77" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>33</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D77" t="s">
         <v>34</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E77" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="2:10">
-      <c r="B77" s="52">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B78" s="50">
         <v>50000</v>
       </c>
-      <c r="C77" s="43">
-        <f>B77*(1+$C$73)</f>
+      <c r="C78" s="42">
+        <f>B78*(1+$C$74)</f>
         <v>77000</v>
       </c>
-      <c r="D77" s="43">
-        <f>C77*0.25</f>
+      <c r="D78" s="42">
+        <f>C78*0.25</f>
         <v>19250</v>
       </c>
-      <c r="E77" s="43">
-        <f>C77*0.5</f>
+      <c r="E78" s="42">
+        <f>C78*0.5</f>
         <v>38500</v>
       </c>
     </row>
-    <row r="78" spans="2:10">
-      <c r="B78" s="52">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B79" s="50">
         <v>60000</v>
       </c>
-      <c r="C78" s="43">
-        <f t="shared" ref="C78:C93" si="4">B78*(1+$C$73)</f>
+      <c r="C79" s="42">
+        <f t="shared" ref="C79:C94" si="11">B79*(1+$C$74)</f>
         <v>92400</v>
       </c>
-      <c r="D78" s="43">
-        <f t="shared" ref="D78:D93" si="5">C78*0.25</f>
+      <c r="D79" s="42">
+        <f t="shared" ref="D79:D94" si="12">C79*0.25</f>
         <v>23100</v>
       </c>
-      <c r="E78" s="43">
-        <f t="shared" ref="E78:E93" si="6">C78*0.5</f>
+      <c r="E79" s="42">
+        <f t="shared" ref="E79:E94" si="13">C79*0.5</f>
         <v>46200</v>
       </c>
     </row>
-    <row r="79" spans="2:10">
-      <c r="B79" s="52">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B80" s="50">
         <v>70000</v>
       </c>
-      <c r="C79" s="43">
-        <f t="shared" si="4"/>
+      <c r="C80" s="42">
+        <f t="shared" si="11"/>
         <v>107800</v>
       </c>
-      <c r="D79" s="43">
-        <f t="shared" si="5"/>
+      <c r="D80" s="42">
+        <f t="shared" si="12"/>
         <v>26950</v>
       </c>
-      <c r="E79" s="43">
-        <f t="shared" si="6"/>
+      <c r="E80" s="42">
+        <f t="shared" si="13"/>
         <v>53900</v>
       </c>
     </row>
-    <row r="80" spans="2:10">
-      <c r="B80" s="52">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B81" s="50">
         <v>80000</v>
       </c>
-      <c r="C80" s="43">
-        <f t="shared" si="4"/>
+      <c r="C81" s="42">
+        <f t="shared" si="11"/>
         <v>123200</v>
       </c>
-      <c r="D80" s="43">
-        <f t="shared" si="5"/>
+      <c r="D81" s="42">
+        <f t="shared" si="12"/>
         <v>30800</v>
       </c>
-      <c r="E80" s="43">
-        <f t="shared" si="6"/>
+      <c r="E81" s="42">
+        <f t="shared" si="13"/>
         <v>61600</v>
       </c>
     </row>
-    <row r="81" spans="2:5">
-      <c r="B81" s="52">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B82" s="50">
         <v>90000</v>
       </c>
-      <c r="C81" s="43">
-        <f t="shared" si="4"/>
+      <c r="C82" s="42">
+        <f t="shared" si="11"/>
         <v>138600</v>
       </c>
-      <c r="D81" s="43">
-        <f t="shared" si="5"/>
+      <c r="D82" s="42">
+        <f t="shared" si="12"/>
         <v>34650</v>
       </c>
-      <c r="E81" s="43">
-        <f t="shared" si="6"/>
+      <c r="E82" s="42">
+        <f t="shared" si="13"/>
         <v>69300</v>
       </c>
     </row>
-    <row r="82" spans="2:5">
-      <c r="B82" s="52">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B83" s="50">
         <v>100000</v>
       </c>
-      <c r="C82" s="43">
-        <f t="shared" si="4"/>
+      <c r="C83" s="42">
+        <f t="shared" si="11"/>
         <v>154000</v>
       </c>
-      <c r="D82" s="43">
-        <f t="shared" si="5"/>
+      <c r="D83" s="42">
+        <f t="shared" si="12"/>
         <v>38500</v>
       </c>
-      <c r="E82" s="43">
-        <f t="shared" si="6"/>
+      <c r="E83" s="42">
+        <f t="shared" si="13"/>
         <v>77000</v>
       </c>
     </row>
-    <row r="83" spans="2:5">
-      <c r="B83" s="52">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B84" s="50">
         <v>110000</v>
       </c>
-      <c r="C83" s="43">
-        <f t="shared" si="4"/>
+      <c r="C84" s="42">
+        <f t="shared" si="11"/>
         <v>169400</v>
       </c>
-      <c r="D83" s="43">
-        <f t="shared" si="5"/>
+      <c r="D84" s="42">
+        <f t="shared" si="12"/>
         <v>42350</v>
       </c>
-      <c r="E83" s="43">
-        <f t="shared" si="6"/>
+      <c r="E84" s="42">
+        <f t="shared" si="13"/>
         <v>84700</v>
       </c>
     </row>
-    <row r="84" spans="2:5">
-      <c r="B84" s="52">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B85" s="50">
         <v>120000</v>
       </c>
-      <c r="C84" s="43">
-        <f t="shared" si="4"/>
+      <c r="C85" s="42">
+        <f t="shared" si="11"/>
         <v>184800</v>
       </c>
-      <c r="D84" s="43">
-        <f t="shared" si="5"/>
+      <c r="D85" s="42">
+        <f t="shared" si="12"/>
         <v>46200</v>
       </c>
-      <c r="E84" s="43">
-        <f t="shared" si="6"/>
+      <c r="E85" s="42">
+        <f t="shared" si="13"/>
         <v>92400</v>
       </c>
     </row>
-    <row r="85" spans="2:5">
-      <c r="B85" s="52">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B86" s="50">
         <v>130000</v>
       </c>
-      <c r="C85" s="43">
-        <f t="shared" si="4"/>
+      <c r="C86" s="42">
+        <f t="shared" si="11"/>
         <v>200200</v>
       </c>
-      <c r="D85" s="43">
-        <f t="shared" si="5"/>
+      <c r="D86" s="42">
+        <f t="shared" si="12"/>
         <v>50050</v>
       </c>
-      <c r="E85" s="43">
-        <f t="shared" si="6"/>
+      <c r="E86" s="42">
+        <f t="shared" si="13"/>
         <v>100100</v>
       </c>
     </row>
-    <row r="86" spans="2:5">
-      <c r="B86" s="52">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B87" s="50">
         <v>140000</v>
       </c>
-      <c r="C86" s="43">
-        <f t="shared" si="4"/>
+      <c r="C87" s="42">
+        <f t="shared" si="11"/>
         <v>215600</v>
       </c>
-      <c r="D86" s="43">
-        <f t="shared" si="5"/>
+      <c r="D87" s="42">
+        <f t="shared" si="12"/>
         <v>53900</v>
       </c>
-      <c r="E86" s="43">
-        <f t="shared" si="6"/>
+      <c r="E87" s="42">
+        <f t="shared" si="13"/>
         <v>107800</v>
       </c>
     </row>
-    <row r="87" spans="2:5">
-      <c r="B87" s="52">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B88" s="50">
         <v>150000</v>
       </c>
-      <c r="C87" s="43">
-        <f t="shared" si="4"/>
+      <c r="C88" s="42">
+        <f t="shared" si="11"/>
         <v>231000</v>
       </c>
-      <c r="D87" s="43">
-        <f t="shared" si="5"/>
+      <c r="D88" s="42">
+        <f t="shared" si="12"/>
         <v>57750</v>
       </c>
-      <c r="E87" s="43">
-        <f t="shared" si="6"/>
+      <c r="E88" s="42">
+        <f t="shared" si="13"/>
         <v>115500</v>
       </c>
     </row>
-    <row r="88" spans="2:5">
-      <c r="B88" s="52">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B89" s="50">
         <v>160000</v>
       </c>
-      <c r="C88" s="43">
-        <f t="shared" si="4"/>
+      <c r="C89" s="42">
+        <f t="shared" si="11"/>
         <v>246400</v>
       </c>
-      <c r="D88" s="43">
-        <f t="shared" si="5"/>
+      <c r="D89" s="42">
+        <f t="shared" si="12"/>
         <v>61600</v>
       </c>
-      <c r="E88" s="43">
-        <f t="shared" si="6"/>
+      <c r="E89" s="42">
+        <f t="shared" si="13"/>
         <v>123200</v>
       </c>
     </row>
-    <row r="89" spans="2:5">
-      <c r="B89" s="52">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B90" s="50">
         <v>170000</v>
       </c>
-      <c r="C89" s="43">
-        <f t="shared" si="4"/>
+      <c r="C90" s="42">
+        <f t="shared" si="11"/>
         <v>261800</v>
       </c>
-      <c r="D89" s="43">
-        <f t="shared" si="5"/>
+      <c r="D90" s="42">
+        <f t="shared" si="12"/>
         <v>65450</v>
       </c>
-      <c r="E89" s="43">
-        <f t="shared" si="6"/>
+      <c r="E90" s="42">
+        <f t="shared" si="13"/>
         <v>130900</v>
       </c>
     </row>
-    <row r="90" spans="2:5">
-      <c r="B90" s="52">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B91" s="50">
         <v>180000</v>
       </c>
-      <c r="C90" s="43">
-        <f t="shared" si="4"/>
+      <c r="C91" s="42">
+        <f t="shared" si="11"/>
         <v>277200</v>
       </c>
-      <c r="D90" s="43">
-        <f t="shared" si="5"/>
+      <c r="D91" s="42">
+        <f t="shared" si="12"/>
         <v>69300</v>
       </c>
-      <c r="E90" s="43">
-        <f t="shared" si="6"/>
+      <c r="E91" s="42">
+        <f t="shared" si="13"/>
         <v>138600</v>
       </c>
     </row>
-    <row r="91" spans="2:5">
-      <c r="B91" s="52">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B92" s="50">
         <v>190000</v>
       </c>
-      <c r="C91" s="43">
-        <f t="shared" si="4"/>
+      <c r="C92" s="42">
+        <f t="shared" si="11"/>
         <v>292600</v>
       </c>
-      <c r="D91" s="43">
-        <f t="shared" si="5"/>
+      <c r="D92" s="42">
+        <f t="shared" si="12"/>
         <v>73150</v>
       </c>
-      <c r="E91" s="43">
-        <f t="shared" si="6"/>
+      <c r="E92" s="42">
+        <f t="shared" si="13"/>
         <v>146300</v>
       </c>
     </row>
-    <row r="92" spans="2:5">
-      <c r="B92" s="52">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B93" s="50">
         <v>200000</v>
       </c>
-      <c r="C92" s="43">
-        <f t="shared" si="4"/>
+      <c r="C93" s="42">
+        <f t="shared" si="11"/>
         <v>308000</v>
       </c>
-      <c r="D92" s="43">
-        <f t="shared" si="5"/>
+      <c r="D93" s="42">
+        <f t="shared" si="12"/>
         <v>77000</v>
       </c>
-      <c r="E92" s="43">
-        <f t="shared" si="6"/>
+      <c r="E93" s="42">
+        <f t="shared" si="13"/>
         <v>154000</v>
       </c>
     </row>
-    <row r="93" spans="2:5">
-      <c r="B93" s="52">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B94" s="50">
         <v>210000</v>
       </c>
-      <c r="C93" s="43">
-        <f t="shared" si="4"/>
+      <c r="C94" s="42">
+        <f t="shared" si="11"/>
         <v>323400</v>
       </c>
-      <c r="D93" s="43">
-        <f t="shared" si="5"/>
+      <c r="D94" s="42">
+        <f t="shared" si="12"/>
         <v>80850</v>
       </c>
-      <c r="E93" s="43">
-        <f t="shared" si="6"/>
+      <c r="E94" s="42">
+        <f t="shared" si="13"/>
         <v>161700</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B22:G22"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C4:F4"/>
   </mergeCells>
@@ -3474,236 +3675,236 @@
       <selection activeCell="B7" sqref="B7:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="14.625" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="18">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.5" thickBot="1"/>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A4" s="94" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+    </row>
+    <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="73"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="95"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
-    </row>
-    <row r="6" spans="1:8" ht="84.75" customHeight="1" thickBot="1">
-      <c r="A6" s="96"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="88" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="83"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="105"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="87"/>
+    </row>
+    <row r="6" spans="1:8" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="106"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="89"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="77"/>
-    </row>
-    <row r="9" spans="1:8" ht="123.75" customHeight="1" thickBot="1">
-      <c r="A9" s="90"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="81"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="91" t="s">
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="83"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="99"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="87"/>
+    </row>
+    <row r="9" spans="1:8" ht="123.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="100"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="91"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="73"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="92"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="77"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="92"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="77"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="92"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="77"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="92"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="77"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="92"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="77"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="92"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="77"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="92"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="77"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="92"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="77"/>
-    </row>
-    <row r="19" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A19" s="92"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="77"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="92"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="77"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="92"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="77"/>
-    </row>
-    <row r="22" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A22" s="92"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="77"/>
-    </row>
-    <row r="23" spans="1:8" ht="65.099999999999994" customHeight="1" thickBot="1">
-      <c r="A23" s="93"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="81"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="83"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="102"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="102"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="102"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="87"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="102"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="102"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="87"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="102"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="87"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="102"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="87"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="102"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="87"/>
+    </row>
+    <row r="19" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="102"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="87"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="102"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="87"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="102"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="87"/>
+    </row>
+    <row r="22" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="102"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="87"/>
+    </row>
+    <row r="23" spans="1:8" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="103"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/phaseIIProposal/commercialization/ProFormaLicensing.xlsx
+++ b/phaseIIProposal/commercialization/ProFormaLicensing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gsabin/RNET/projects/vv-neams/vv-neams/phaseIIProposal/commercialization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC76E9A0-5FB0-F14D-98E5-6B14B1E72741}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68EE21F-0BED-384A-8608-15D12DFF39C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="980" windowWidth="36120" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProForma income" sheetId="1" r:id="rId1"/>
@@ -74,6 +74,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Geneva"/>
+            <family val="2"/>
           </rPr>
           <t>Obligations based on licensing in technology</t>
         </r>
@@ -82,6 +83,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Geneva"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -96,6 +98,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Geneva"/>
+            <family val="2"/>
           </rPr>
           <t>EBIT = Earnings Befroe Interest and Taxes</t>
         </r>
@@ -104,6 +107,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Geneva"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This is also equal for EBITDA (Earnings Befroe Interest, Taxes Depreciation and Amortization) in the licensing case as there is no depreciation</t>
@@ -118,6 +122,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Geneva"/>
+            <family val="2"/>
           </rPr>
           <t>EBITDA/Production Revenue</t>
         </r>
@@ -126,6 +131,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Geneva"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -302,19 +308,19 @@
     <t>Pro Forma Income Statement (V&amp;V Toolkit)</t>
   </si>
   <si>
-    <t>User Support Contracts ($5,000/user)</t>
-  </si>
-  <si>
-    <t>Integration Contracts ($500,000)</t>
-  </si>
-  <si>
-    <t>Commercial Licences ($75,000 each)</t>
-  </si>
-  <si>
-    <t>R&amp;D Contracts ($225,000 each)</t>
-  </si>
-  <si>
-    <t>Third Party User Royalty ($1,500/user)</t>
+    <t>Integration Contracts</t>
+  </si>
+  <si>
+    <t>Third Party User Royalty</t>
+  </si>
+  <si>
+    <t>User Support Contracts</t>
+  </si>
+  <si>
+    <t>Commercial Licences</t>
+  </si>
+  <si>
+    <t>R&amp;D Contracts</t>
   </si>
 </sst>
 </file>
@@ -329,7 +335,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="47" x14ac:knownFonts="1">
     <font>
@@ -339,84 +345,100 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
       <color indexed="9"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Geneva"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Geneva"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -534,33 +556,39 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color indexed="20"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1431,7 +1459,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1597,6 +1625,45 @@
     <xf numFmtId="0" fontId="43" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="52" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1695,46 +1762,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="47" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="52" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="47" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2323,8 +2354,8 @@
   </sheetPr>
   <dimension ref="A2:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2341,31 +2372,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="23" x14ac:dyDescent="0.15">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="B4" s="44"/>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H6" t="s">
@@ -2416,71 +2447,71 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="14" x14ac:dyDescent="0.15">
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="121">
-        <v>7000000000</v>
-      </c>
-      <c r="D8" s="121">
+      <c r="C8" s="82">
+        <v>7300000000</v>
+      </c>
+      <c r="D8" s="82">
         <f>C8*(1+C9)</f>
-        <v>7770000000.000001</v>
-      </c>
-      <c r="E8" s="121">
+        <v>8015400000.000001</v>
+      </c>
+      <c r="E8" s="82">
         <f>D8*(1+D9)</f>
-        <v>8624700000.0000019</v>
-      </c>
-      <c r="F8" s="121">
+        <v>8800909200.0000019</v>
+      </c>
+      <c r="F8" s="82">
         <f>E8*(1+E9)</f>
-        <v>9573417000.0000038</v>
-      </c>
-      <c r="G8" s="122">
+        <v>9663398301.6000023</v>
+      </c>
+      <c r="G8" s="83">
         <f>F8*(1+F9)</f>
-        <v>10626492870.000006</v>
+        <v>10610411335.156803</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="G9" s="109">
-        <v>0.11</v>
+      <c r="C9" s="122">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D9" s="122">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E9" s="122">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F9" s="122">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G9" s="123">
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="121">
+      <c r="C10" s="82">
         <f>C17+C18</f>
         <v>0</v>
       </c>
-      <c r="D10" s="121">
+      <c r="D10" s="82">
         <v>100000</v>
       </c>
-      <c r="E10" s="121">
+      <c r="E10" s="82">
         <f>SUM(E14:E19)</f>
         <v>637500</v>
       </c>
-      <c r="F10" s="121">
+      <c r="F10" s="82">
         <f t="shared" ref="F10:G10" si="1">SUM(F14:F19)</f>
         <v>1425000</v>
       </c>
-      <c r="G10" s="122">
+      <c r="G10" s="83">
         <f t="shared" si="1"/>
         <v>3875000</v>
       </c>
@@ -2496,19 +2527,19 @@
       </c>
       <c r="D11" s="55">
         <f t="shared" si="2"/>
-        <v>1.2870012870012868E-5</v>
+        <v>1.2475983731317212E-5</v>
       </c>
       <c r="E11" s="55">
         <f>E10/E8</f>
-        <v>7.3915614456154983E-5</v>
+        <v>7.2435697893576703E-5</v>
       </c>
       <c r="F11" s="55">
         <f>F10/F8</f>
-        <v>1.4884967405055053E-4</v>
+        <v>1.4746365155662245E-4</v>
       </c>
       <c r="G11" s="56">
         <f>G10/G8</f>
-        <v>3.6465464640169639E-4</v>
+        <v>3.6520733057355447E-4</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -2528,220 +2559,220 @@
     <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="117">
+        <v>44</v>
+      </c>
+      <c r="C14" s="78">
         <f>$H14*I14</f>
         <v>0</v>
       </c>
-      <c r="D14" s="117">
+      <c r="D14" s="78">
         <f t="shared" ref="D14:G14" si="3">$H14*J14</f>
         <v>250000</v>
       </c>
-      <c r="E14" s="117">
+      <c r="E14" s="78">
         <f t="shared" si="3"/>
         <v>250000</v>
       </c>
-      <c r="F14" s="117">
+      <c r="F14" s="78">
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="G14" s="118">
+      <c r="G14" s="79">
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
       <c r="H14">
         <v>250000</v>
       </c>
-      <c r="I14" s="115">
+      <c r="I14" s="76">
         <v>0</v>
       </c>
-      <c r="J14" s="115">
+      <c r="J14" s="76">
         <v>1</v>
       </c>
-      <c r="K14" s="115">
+      <c r="K14" s="76">
         <v>1</v>
       </c>
-      <c r="L14" s="115">
+      <c r="L14" s="76">
         <v>2</v>
       </c>
-      <c r="M14" s="115">
+      <c r="M14" s="76">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="117">
+        <v>45</v>
+      </c>
+      <c r="C15" s="78">
         <f t="shared" ref="C15:C18" si="4">$H15*I15</f>
         <v>0</v>
       </c>
-      <c r="D15" s="117">
+      <c r="D15" s="78">
         <f t="shared" ref="D15:D18" si="5">$H15*J15</f>
         <v>0</v>
       </c>
-      <c r="E15" s="117">
+      <c r="E15" s="78">
         <f t="shared" ref="E15:E18" si="6">$H15*K15</f>
         <v>37500</v>
       </c>
-      <c r="F15" s="117">
+      <c r="F15" s="78">
         <f t="shared" ref="F15:F18" si="7">$H15*L15</f>
         <v>300000</v>
       </c>
-      <c r="G15" s="118">
+      <c r="G15" s="79">
         <f t="shared" ref="G15:G18" si="8">$H15*M15</f>
         <v>2250000</v>
       </c>
       <c r="H15">
         <v>1500</v>
       </c>
-      <c r="I15" s="115">
+      <c r="I15" s="76">
         <v>0</v>
       </c>
-      <c r="J15" s="115">
+      <c r="J15" s="76">
         <v>0</v>
       </c>
-      <c r="K15" s="115">
+      <c r="K15" s="76">
         <v>25</v>
       </c>
-      <c r="L15" s="115">
+      <c r="L15" s="76">
         <v>200</v>
       </c>
-      <c r="M15" s="115">
+      <c r="M15" s="76">
         <v>1500</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="117">
+        <v>46</v>
+      </c>
+      <c r="C16" s="78">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D16" s="117">
+      <c r="D16" s="78">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E16" s="117">
+      <c r="E16" s="78">
         <f t="shared" si="6"/>
         <v>50000</v>
       </c>
-      <c r="F16" s="117">
+      <c r="F16" s="78">
         <f t="shared" si="7"/>
         <v>250000</v>
       </c>
-      <c r="G16" s="118">
+      <c r="G16" s="79">
         <f t="shared" si="8"/>
         <v>750000</v>
       </c>
-      <c r="H16" s="111">
+      <c r="H16" s="72">
         <v>5000</v>
       </c>
-      <c r="I16" s="115">
+      <c r="I16" s="76">
         <v>0</v>
       </c>
-      <c r="J16" s="115">
+      <c r="J16" s="76">
         <v>0</v>
       </c>
-      <c r="K16" s="115">
+      <c r="K16" s="76">
         <v>10</v>
       </c>
-      <c r="L16" s="115">
+      <c r="L16" s="76">
         <v>50</v>
       </c>
-      <c r="M16" s="115">
+      <c r="M16" s="76">
         <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="117">
+        <v>47</v>
+      </c>
+      <c r="C17" s="78">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D17" s="117">
+      <c r="D17" s="78">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E17" s="117">
+      <c r="E17" s="78">
         <f t="shared" si="6"/>
         <v>75000</v>
       </c>
-      <c r="F17" s="117">
+      <c r="F17" s="78">
         <f t="shared" si="7"/>
         <v>150000</v>
       </c>
-      <c r="G17" s="118">
+      <c r="G17" s="79">
         <f t="shared" si="8"/>
         <v>150000</v>
       </c>
       <c r="H17" s="24">
         <v>75000</v>
       </c>
-      <c r="I17" s="116">
+      <c r="I17" s="77">
         <v>0</v>
       </c>
-      <c r="J17" s="116">
+      <c r="J17" s="77">
         <v>0</v>
       </c>
-      <c r="K17" s="116">
+      <c r="K17" s="77">
         <v>1</v>
       </c>
-      <c r="L17" s="116">
+      <c r="L17" s="77">
         <v>2</v>
       </c>
-      <c r="M17" s="116">
+      <c r="M17" s="77">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="117">
+        <v>48</v>
+      </c>
+      <c r="C18" s="78">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D18" s="117">
+      <c r="D18" s="78">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E18" s="117">
+      <c r="E18" s="78">
         <f t="shared" si="6"/>
         <v>225000</v>
       </c>
-      <c r="F18" s="117">
+      <c r="F18" s="78">
         <f t="shared" si="7"/>
         <v>225000</v>
       </c>
-      <c r="G18" s="118">
+      <c r="G18" s="79">
         <f t="shared" si="8"/>
         <v>225000</v>
       </c>
       <c r="H18" s="58">
         <v>225000</v>
       </c>
-      <c r="I18" s="115">
+      <c r="I18" s="76">
         <v>0</v>
       </c>
-      <c r="J18" s="115">
+      <c r="J18" s="76">
         <v>0</v>
       </c>
-      <c r="K18" s="115">
+      <c r="K18" s="76">
         <v>1</v>
       </c>
-      <c r="L18" s="115">
+      <c r="L18" s="76">
         <v>1</v>
       </c>
-      <c r="M18" s="115">
+      <c r="M18" s="76">
         <v>1</v>
       </c>
     </row>
@@ -2750,45 +2781,45 @@
       <c r="B19" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="119">
+      <c r="C19" s="80">
         <v>500000</v>
       </c>
-      <c r="D19" s="119">
+      <c r="D19" s="80">
         <v>500000</v>
       </c>
-      <c r="E19" s="119">
+      <c r="E19" s="80">
         <v>0</v>
       </c>
-      <c r="F19" s="119">
+      <c r="F19" s="80">
         <v>0</v>
       </c>
-      <c r="G19" s="120">
+      <c r="G19" s="81">
         <v>0</v>
       </c>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
     </row>
     <row r="20" spans="1:13" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="114">
+      <c r="C20" s="75">
         <f>SUM(C17:C19)</f>
         <v>500000</v>
       </c>
-      <c r="D20" s="114">
+      <c r="D20" s="75">
         <f>SUM(D14:D19)</f>
         <v>750000</v>
       </c>
-      <c r="E20" s="114">
+      <c r="E20" s="75">
         <f>SUM(E14:E19)</f>
         <v>637500</v>
       </c>
-      <c r="F20" s="114">
+      <c r="F20" s="75">
         <f>SUM(F14:F19)</f>
         <v>1425000</v>
       </c>
@@ -2796,7 +2827,7 @@
         <f>SUM(G14:G19)</f>
         <v>3875000</v>
       </c>
-      <c r="H20" s="112"/>
+      <c r="H20" s="73"/>
     </row>
     <row r="21" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -2812,14 +2843,14 @@
       <c r="A22" s="2">
         <v>3</v>
       </c>
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="71"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="86"/>
     </row>
     <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
@@ -2867,7 +2898,7 @@
         <v>369600</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="46" t="s">
         <v>36</v>
@@ -3039,14 +3070,14 @@
       <c r="A33" s="2">
         <v>4</v>
       </c>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="71"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="86"/>
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:10" ht="18" x14ac:dyDescent="0.2">
@@ -3110,14 +3141,14 @@
       <c r="A37" s="2">
         <v>5</v>
       </c>
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="71"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="86"/>
     </row>
     <row r="38" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
@@ -3656,7 +3687,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="64" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <extLst>
@@ -3682,229 +3713,229 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
     </row>
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="83"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="98"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="105"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87"/>
+      <c r="A5" s="120"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="102"/>
     </row>
     <row r="6" spans="1:8" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="106"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="91"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="106"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="83"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="99"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="87"/>
+      <c r="A8" s="114"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="102"/>
     </row>
     <row r="9" spans="1:8" ht="123.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="91"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="106"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="83"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="98"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="102"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="87"/>
+      <c r="A11" s="117"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="102"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="102"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="87"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="102"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="102"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="87"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="102"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="102"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="87"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="102"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="102"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="87"/>
+      <c r="A15" s="117"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="102"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="102"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="87"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="102"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="102"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="87"/>
+      <c r="A17" s="117"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="102"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="102"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="87"/>
+      <c r="A18" s="117"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="102"/>
     </row>
     <row r="19" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="102"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="87"/>
+      <c r="A19" s="117"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="102"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="102"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="87"/>
+      <c r="A20" s="117"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="102"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="102"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="87"/>
+      <c r="A21" s="117"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="102"/>
     </row>
     <row r="22" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="102"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="87"/>
+      <c r="A22" s="117"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="102"/>
     </row>
     <row r="23" spans="1:8" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="103"/>
-      <c r="B23" s="97"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="91"/>
+      <c r="A23" s="118"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="7">
